--- a/outputs/ML_Results/dist_commute/Toulouse.xlsx
+++ b/outputs/ML_Results/dist_commute/Toulouse.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ11274032" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ11724790" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ12355249" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ12936349" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ13475108" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ14000859" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ14607125" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ15088268" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ15592251" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ38851398" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ39217429" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ39628127" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ40061656" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ40451338" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ40855390" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ41261600" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ41660659" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ42060716" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8411.441879933649</v>
+        <v>8559.4792142925</v>
       </c>
       <c r="C2" t="n">
-        <v>4.079587071942055e-10</v>
+        <v>2.104703365986733e-10</v>
       </c>
     </row>
     <row r="3">
@@ -479,205 +479,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-332.019682009217</v>
+        <v>85.56644859213452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6635713452121688</v>
+        <v>0.9100168092499552</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>957.173993905114</v>
+        <v>1038.474093382618</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2241016119819633</v>
+        <v>0.1684449262855488</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1062.610497818007</v>
+        <v>-1919.830912901279</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1581610498237948</v>
+        <v>0.1348018027623009</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1894.328865733456</v>
+        <v>185.740277792478</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1394717860831051</v>
+        <v>0.01732532415407506</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.2550916496663</v>
+        <v>-1508.61272696468</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01571539987388114</v>
+        <v>2.589641352173449e-15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1528.120804112805</v>
+        <v>-36.32249078929323</v>
       </c>
       <c r="C8" t="n">
-        <v>1.056711423671465e-15</v>
+        <v>1.467628002996332e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-34.02231891231527</v>
+        <v>431.1455622058448</v>
       </c>
       <c r="C9" t="n">
-        <v>4.994729789275144e-05</v>
+        <v>1.175101843345304e-16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>424.0824192568678</v>
+        <v>225.1144994421358</v>
       </c>
       <c r="C10" t="n">
-        <v>3.403203498613145e-16</v>
+        <v>1.073217817351589e-09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>233.6261437407594</v>
+        <v>0.08638309601867286</v>
       </c>
       <c r="C11" t="n">
-        <v>2.508057452846826e-10</v>
+        <v>0.228526137107308</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08695115306383948</v>
+        <v>-0.0001370410827594626</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2247886152682265</v>
+        <v>0.02578860560074952</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001427814723107728</v>
+        <v>-0.1109709129630811</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02004299036165495</v>
+        <v>0.9873237093736872</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3668195820980724</v>
+        <v>24.59662067461386</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9580590473508461</v>
+        <v>5.202620712388441e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.64273614653554</v>
+        <v>-2248.751920221544</v>
       </c>
       <c r="C15" t="n">
-        <v>4.836042909082435e-06</v>
+        <v>0.04462858924189807</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2175.092583824875</v>
+        <v>-2987.105194089568</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05177213818131598</v>
+        <v>2.074905062507086e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3020.443387605015</v>
+        <v>-2326.967088740204</v>
       </c>
       <c r="C17" t="n">
-        <v>1.630988198798856e-05</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-2204.330557998487</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1894745042513812</v>
+        <v>0.1665771482867518</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8039.245206403899</v>
+        <v>8309.14308277113</v>
       </c>
       <c r="C2" t="n">
-        <v>5.252514038180748e-09</v>
+        <v>1.62237491557614e-09</v>
       </c>
     </row>
     <row r="3">
@@ -736,205 +723,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>657.8373497087445</v>
+        <v>1094.805624574649</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4011235733629013</v>
+        <v>0.1590588593882504</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1975.817186547958</v>
+        <v>1959.281149070185</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01421198996112765</v>
+        <v>0.01147282100397223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1991.966441512495</v>
+        <v>-677.4080344482131</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01005163354938892</v>
+        <v>0.5667766273750298</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-647.7520291636051</v>
+        <v>234.5114139607753</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5832868920750141</v>
+        <v>0.002841903028612641</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>237.2125089911685</v>
+        <v>-1783.81269440894</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002499758854519789</v>
+        <v>7.026446231848277e-21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1800.074871078614</v>
+        <v>-39.10397731969555</v>
       </c>
       <c r="C8" t="n">
-        <v>2.775815128552194e-21</v>
+        <v>3.875183611787796e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-36.63432123953707</v>
+        <v>463.6332288026471</v>
       </c>
       <c r="C9" t="n">
-        <v>1.541421948541114e-05</v>
+        <v>1.484227295772252e-18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>458.4001344448139</v>
+        <v>213.6606185143538</v>
       </c>
       <c r="C10" t="n">
-        <v>3.217307663726328e-18</v>
+        <v>8.277000203851175e-09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224.0790611294274</v>
+        <v>0.1002064085749313</v>
       </c>
       <c r="C11" t="n">
-        <v>1.561077406449784e-09</v>
+        <v>0.155649489870486</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1028587602399238</v>
+        <v>-0.0001844164623483085</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1443765295063718</v>
+        <v>0.003156211319440929</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001922924300487194</v>
+        <v>0.01193919792281317</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002059800110476408</v>
+        <v>0.99863052723613</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7078010875737846</v>
+        <v>25.24264602736938</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9188482698330044</v>
+        <v>6.544573652570229e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.74474979541437</v>
+        <v>-2984.867281723178</v>
       </c>
       <c r="C15" t="n">
-        <v>4.151620711678443e-06</v>
+        <v>0.007553186463040676</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2838.999572939006</v>
+        <v>-3581.448139510693</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01096894737582578</v>
+        <v>4.250138601556027e-07</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3585.988534741093</v>
+        <v>-1145.129625431258</v>
       </c>
       <c r="C17" t="n">
-        <v>3.940332033860231e-07</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1007.373329745898</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5444837204404995</v>
+        <v>0.4914736723823991</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8729.510706972638</v>
+        <v>8931.500701425597</v>
       </c>
       <c r="C2" t="n">
-        <v>1.369968406530349e-10</v>
+        <v>5.22659381760032e-11</v>
       </c>
     </row>
     <row r="3">
@@ -993,205 +967,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.79856580389514</v>
+        <v>496.4167703936287</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9005323898421942</v>
+        <v>0.5265697602032553</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1290.154477346765</v>
+        <v>1352.839206589945</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1123782478182669</v>
+        <v>0.08301988411563067</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1375.011681639091</v>
+        <v>-1449.380677945643</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07773496577058057</v>
+        <v>0.216055056443741</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1437.814885003083</v>
+        <v>205.5087619567472</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2191656113649459</v>
+        <v>0.008716459025500847</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>209.0854126182463</v>
+        <v>-1644.773959870839</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00754613256043158</v>
+        <v>4.891141269586353e-18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1667.923275827691</v>
+        <v>-45.60125572321082</v>
       </c>
       <c r="C8" t="n">
-        <v>1.594874814025444e-18</v>
+        <v>5.788019384202165e-08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-43.89563800550212</v>
+        <v>450.0201426670487</v>
       </c>
       <c r="C9" t="n">
-        <v>1.776413580992732e-07</v>
+        <v>5.539630246177607e-18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>445.4305046520815</v>
+        <v>258.4231545297431</v>
       </c>
       <c r="C10" t="n">
-        <v>1.106079398917991e-17</v>
+        <v>3.072641871714979e-12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>268.3532825663875</v>
+        <v>0.1505866782085918</v>
       </c>
       <c r="C11" t="n">
-        <v>4.812535681823961e-13</v>
+        <v>0.03430709222391803</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1564883977391524</v>
+        <v>-0.0001472130903816358</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0276980596062278</v>
+        <v>0.01354641399318221</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001533109681983769</v>
+        <v>3.336972871115765</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01006792731315645</v>
+        <v>0.631143160514041</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.751768196169304</v>
+        <v>22.33888436758924</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5889203547896045</v>
+        <v>3.853072953585204e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.54892338919368</v>
+        <v>-2849.518211552358</v>
       </c>
       <c r="C15" t="n">
-        <v>3.186432193506091e-05</v>
+        <v>0.009798753278414639</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2638.04399767937</v>
+        <v>-4021.181109881573</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01680355954091211</v>
+        <v>9.721755231894737e-09</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4012.451638119525</v>
+        <v>-2798.776755381859</v>
       </c>
       <c r="C17" t="n">
-        <v>1.003009283621626e-08</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-2767.625893172528</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1019619309404649</v>
+        <v>0.09858169099027267</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8577.678305662028</v>
+        <v>8806.796907265918</v>
       </c>
       <c r="C2" t="n">
-        <v>3.980491412312381e-10</v>
+        <v>1.430810888449753e-10</v>
       </c>
     </row>
     <row r="3">
@@ -1250,205 +1211,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>861.3948213955712</v>
+        <v>1346.803444201805</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2879714656474188</v>
+        <v>0.0944648399965085</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2329.892999242627</v>
+        <v>2347.599304397963</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005118863555467116</v>
+        <v>0.003452822730656717</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2376.728908741254</v>
+        <v>-511.7770640520671</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00301321237227496</v>
+        <v>0.6699434250648812</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490.4637271975212</v>
+        <v>179.049273571018</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6823214785286572</v>
+        <v>0.02122158937610778</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>180.2232410616449</v>
+        <v>-1509.25977131059</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02013699267521809</v>
+        <v>1.179108793230331e-15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1536.24232610695</v>
+        <v>-37.287673230363</v>
       </c>
       <c r="C8" t="n">
-        <v>3.319283576144152e-16</v>
+        <v>7.831235737443233e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-35.00681153933215</v>
+        <v>363.9348707257268</v>
       </c>
       <c r="C9" t="n">
-        <v>2.6957120737271e-05</v>
+        <v>2.00371285510003e-12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.4297545128471</v>
+        <v>230.5992288745629</v>
       </c>
       <c r="C10" t="n">
-        <v>3.396268778061804e-12</v>
+        <v>3.509957197825063e-10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>242.9244069830164</v>
+        <v>0.1024409138053081</v>
       </c>
       <c r="C11" t="n">
-        <v>4.008700728043942e-11</v>
+        <v>0.1472046090455995</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1015491351938623</v>
+        <v>-0.0001498544457121694</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1499362714740907</v>
+        <v>0.01103951224305827</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001549875718544894</v>
+        <v>-4.432226811669192</v>
       </c>
       <c r="C13" t="n">
-        <v>0.008456836313050102</v>
+        <v>0.5206139873059128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.724619542684503</v>
+        <v>17.63778487602703</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5886477570806081</v>
+        <v>0.0012040025531448</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.85105686936664</v>
+        <v>-3153.444102883986</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001025158388786514</v>
+        <v>0.004127478805718771</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3033.260586799119</v>
+        <v>-3546.794451671588</v>
       </c>
       <c r="C16" t="n">
-        <v>0.005713318832181356</v>
+        <v>3.810784273923718e-07</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3545.847593285227</v>
+        <v>-1996.381649249989</v>
       </c>
       <c r="C17" t="n">
-        <v>3.636813680859257e-07</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1783.981680429704</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.285018637773886</v>
+        <v>0.2323072644887631</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8353.997906311921</v>
+        <v>8485.523670121347</v>
       </c>
       <c r="C2" t="n">
-        <v>1.399578746656461e-09</v>
+        <v>7.791850940977217e-10</v>
       </c>
     </row>
     <row r="3">
@@ -1507,205 +1455,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>299.3590339156647</v>
+        <v>617.3672286805429</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7031060155348891</v>
+        <v>0.427744292432982</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1242.379862123244</v>
+        <v>1591.864915374179</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1236329986835063</v>
+        <v>0.04012669570886505</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1608.123946808748</v>
+        <v>74.88671132634954</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03799337157703898</v>
+        <v>0.9507555515827182</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88.03936418452963</v>
+        <v>177.162513169807</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9420768638968744</v>
+        <v>0.02421344669463003</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>176.5599558622302</v>
+        <v>-1454.744086774182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02459076911920498</v>
+        <v>1.815010312762915e-14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1475.45203606883</v>
+        <v>-47.05751802141307</v>
       </c>
       <c r="C8" t="n">
-        <v>7.727006206634614e-15</v>
+        <v>2.267537359155867e-08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-45.5603435794859</v>
+        <v>432.4057822346945</v>
       </c>
       <c r="C9" t="n">
-        <v>6.409259301472295e-08</v>
+        <v>1.444159158537377e-16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>428.8159000303564</v>
+        <v>232.176776797333</v>
       </c>
       <c r="C10" t="n">
-        <v>2.467436958391328e-16</v>
+        <v>2.8725043465328e-10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>238.4605750152127</v>
+        <v>0.06719086712067363</v>
       </c>
       <c r="C11" t="n">
-        <v>9.845633647252479e-11</v>
+        <v>0.3442897403884454</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06879297872365678</v>
+        <v>-0.0001293929374899603</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3325542150725711</v>
+        <v>0.03062848492933417</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001352750102036933</v>
+        <v>1.345430508210871</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02378808381604244</v>
+        <v>0.8462859845964477</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.788792062266569</v>
+        <v>25.0159823879047</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7965019955920388</v>
+        <v>1.15369204280982e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.25335039304787</v>
+        <v>-2875.0679391975</v>
       </c>
       <c r="C15" t="n">
-        <v>9.396237922069449e-06</v>
+        <v>0.009352280930909609</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2760.602430755082</v>
+        <v>-3371.828457872727</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01256623393561039</v>
+        <v>1.354370557360546e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3379.528157064743</v>
+        <v>-1600.97834558835</v>
       </c>
       <c r="C17" t="n">
-        <v>1.258063422027297e-06</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1500.519763098404</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3651566421485832</v>
+        <v>0.3342061836649873</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8969.758423388801</v>
+        <v>9115.353010299475</v>
       </c>
       <c r="C2" t="n">
-        <v>7.841733416376529e-11</v>
+        <v>3.889364591881043e-11</v>
       </c>
     </row>
     <row r="3">
@@ -1764,205 +1699,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-208.7991448907048</v>
+        <v>91.21829430906359</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7964353393255441</v>
+        <v>0.9095917270772188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>724.0307651546825</v>
+        <v>983.6506777193122</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3842615452162882</v>
+        <v>0.2190306448894407</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1003.31819552742</v>
+        <v>-739.8146131053441</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2096350078105106</v>
+        <v>0.5450936830303266</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-726.8203755959375</v>
+        <v>210.8438177651651</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5518841494824114</v>
+        <v>0.006979688293958795</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.7525730264962</v>
+        <v>-1549.54118773107</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006446806278362235</v>
+        <v>3.078892094266292e-16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1561.694943273902</v>
+        <v>-42.22625253362901</v>
       </c>
       <c r="C8" t="n">
-        <v>1.752679105556713e-16</v>
+        <v>3.501638114842269e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-40.86289027454112</v>
+        <v>408.9650882066287</v>
       </c>
       <c r="C9" t="n">
-        <v>8.400720306438261e-07</v>
+        <v>2.330514139274389e-15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>405.0093705554852</v>
+        <v>204.433681199621</v>
       </c>
       <c r="C10" t="n">
-        <v>4.185608039819013e-15</v>
+        <v>2.506555849169713e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>210.6339604465885</v>
+        <v>0.08198519896160054</v>
       </c>
       <c r="C11" t="n">
-        <v>9.711226091685254e-09</v>
+        <v>0.2500015776660079</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08512115114546515</v>
+        <v>-0.0001237558061867247</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2320514849490233</v>
+        <v>0.04198803009168137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001303047675035616</v>
+        <v>-1.415908191466152</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03224896401544102</v>
+        <v>0.8378884075182875</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.9305496268244977</v>
+        <v>25.4680967221373</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8929892786468543</v>
+        <v>2.700056813535874e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.7137412833092</v>
+        <v>-2685.259660994704</v>
       </c>
       <c r="C15" t="n">
-        <v>2.13187710719979e-06</v>
+        <v>0.01636818420562554</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2584.966443307586</v>
+        <v>-2983.772227029259</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02080012518173684</v>
+        <v>2.35000003394536e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3000.019640546846</v>
+        <v>-2662.151621846941</v>
       </c>
       <c r="C17" t="n">
-        <v>2.092789865581229e-05</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-2591.856015649039</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1202819124320432</v>
+        <v>0.1107795939444428</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11334.40800346484</v>
+        <v>11456.62263092298</v>
       </c>
       <c r="C2" t="n">
-        <v>1.041565257829422e-16</v>
+        <v>4.890490271394243e-17</v>
       </c>
     </row>
     <row r="3">
@@ -2021,205 +1943,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-535.1050753888005</v>
+        <v>-249.8590082214145</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4951999296174243</v>
+        <v>0.7477685625579482</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.6443111246074</v>
+        <v>610.604319336249</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7180201044291883</v>
+        <v>0.4295846642259475</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>624.5779357287211</v>
+        <v>-1798.515916640818</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4188538362910271</v>
+        <v>0.1327547524589278</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1790.329407219606</v>
+        <v>131.2032564278439</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1343100595384431</v>
+        <v>0.09315952419990839</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>131.7587152367319</v>
+        <v>-1574.625353065934</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09160202990005191</v>
+        <v>8.555261857981018e-17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1589.826767137237</v>
+        <v>-46.92193167789622</v>
       </c>
       <c r="C8" t="n">
-        <v>4.330514701277928e-17</v>
+        <v>2.57319721577168e-08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-45.37374916672018</v>
+        <v>389.4527025677106</v>
       </c>
       <c r="C9" t="n">
-        <v>7.693763916638052e-08</v>
+        <v>7.468914910069069e-14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>386.1021128983448</v>
+        <v>211.8916694414366</v>
       </c>
       <c r="C10" t="n">
-        <v>1.19674788076189e-13</v>
+        <v>1.044486680971026e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>217.5029629301549</v>
+        <v>0.03617853288152988</v>
       </c>
       <c r="C11" t="n">
-        <v>4.428779860901683e-09</v>
+        <v>0.6112909147623342</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03761760397456773</v>
+        <v>-7.526117392886085e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5969949126429999</v>
+        <v>0.2346437821305851</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.327233315212622e-05</v>
+        <v>-3.574824635130463</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1888153407978669</v>
+        <v>0.6084127295232047</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.291383026285761</v>
+        <v>17.25488277075075</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6369811968462631</v>
+        <v>0.001543090236456346</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.40910369679268</v>
+        <v>-4525.000438661249</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001391920095787042</v>
+        <v>4.589903444257186e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4403.782918574355</v>
+        <v>-3754.565789107786</v>
       </c>
       <c r="C16" t="n">
-        <v>7.33418302229313e-05</v>
+        <v>6.63038171530003e-08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3756.887556136604</v>
+        <v>-2491.455904664843</v>
       </c>
       <c r="C17" t="n">
-        <v>6.399727919606795e-08</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-2338.138478954718</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1591995017723487</v>
+        <v>0.1335628416931118</v>
       </c>
     </row>
   </sheetData>
@@ -2233,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8108.694205427964</v>
+        <v>8264.237077695803</v>
       </c>
       <c r="C2" t="n">
-        <v>3.754975177943165e-09</v>
+        <v>1.93698835288573e-09</v>
       </c>
     </row>
     <row r="3">
@@ -2278,205 +2187,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-878.9452601461783</v>
+        <v>-491.0758785794798</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2758768115655141</v>
+        <v>0.5394962467236093</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>272.6732020182856</v>
+        <v>539.2362456603779</v>
       </c>
       <c r="C4" t="n">
-        <v>0.741634507346798</v>
+        <v>0.4988178776152311</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>557.6605265242605</v>
+        <v>-2028.321358097021</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4837435684725375</v>
+        <v>0.09517932393183867</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2018.769298960473</v>
+        <v>220.3795222031802</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09634353577991366</v>
+        <v>0.004254412343829724</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>219.654619022864</v>
+        <v>-1656.651025088943</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004334833908317499</v>
+        <v>1.391370274345014e-18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1675.317072931952</v>
+        <v>-45.15748329531841</v>
       </c>
       <c r="C8" t="n">
-        <v>5.397417017975568e-19</v>
+        <v>6.816211247173608e-08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-43.15788386265444</v>
+        <v>338.9008667333118</v>
       </c>
       <c r="C9" t="n">
-        <v>2.569700424924132e-07</v>
+        <v>6.319870694059182e-11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>333.2394012774621</v>
+        <v>244.4645755035914</v>
       </c>
       <c r="C10" t="n">
-        <v>1.2589278832768e-10</v>
+        <v>3.007743549462916e-11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>253.5603084729539</v>
+        <v>0.1577121304786596</v>
       </c>
       <c r="C11" t="n">
-        <v>5.804417416866388e-12</v>
+        <v>0.02512127310977947</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1606671934924792</v>
+        <v>-0.0001434297032114345</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02236637038491125</v>
+        <v>0.01810547652806192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001493320100427205</v>
+        <v>1.294641344879539</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01378795880863645</v>
+        <v>0.8534556814127479</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.405763994544249</v>
+        <v>39.39853574175816</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8408495050625931</v>
+        <v>6.500153516197236e-11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>39.49318160237101</v>
+        <v>-3092.754430603717</v>
       </c>
       <c r="C15" t="n">
-        <v>5.555342294107903e-11</v>
+        <v>0.004990024303608332</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2963.323786675995</v>
+        <v>-3236.870871406436</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007100509987774271</v>
+        <v>2.834099774950492e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3227.25905216684</v>
+        <v>-2690.921084545842</v>
       </c>
       <c r="C17" t="n">
-        <v>2.950429266013764e-06</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-2549.631818465585</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1241106553567957</v>
+        <v>0.1049265661763645</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9224.857827480826</v>
+        <v>9338.145806589659</v>
       </c>
       <c r="C2" t="n">
-        <v>4.696084824586274e-12</v>
+        <v>2.690908754874282e-12</v>
       </c>
     </row>
     <row r="3">
@@ -2535,205 +2431,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.46871905358387</v>
+        <v>412.5309312811909</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9620617565020233</v>
+        <v>0.576568427257081</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1171.828664600315</v>
+        <v>1365.005319037104</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1275423416041262</v>
+        <v>0.06350479891333878</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1385.560160769568</v>
+        <v>-1711.826162924905</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05933730234853248</v>
+        <v>0.1408950632315795</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1698.655000901904</v>
+        <v>187.9575758739124</v>
       </c>
       <c r="C6" t="n">
-        <v>0.143517586103787</v>
+        <v>0.01601337676483489</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>191.6570356868661</v>
+        <v>-1696.172908419456</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01394814952519056</v>
+        <v>4.330914226337001e-19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1716.121398255699</v>
+        <v>-37.86348771633716</v>
       </c>
       <c r="C8" t="n">
-        <v>1.586918525517926e-19</v>
+        <v>7.340366250535913e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-36.43213388827467</v>
+        <v>389.020306226909</v>
       </c>
       <c r="C9" t="n">
-        <v>1.600769016114839e-05</v>
+        <v>1.00004073000788e-13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>383.4000568669161</v>
+        <v>243.3761587476874</v>
       </c>
       <c r="C10" t="n">
-        <v>2.152684488020697e-13</v>
+        <v>1.045321027768214e-10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>250.1422090915314</v>
+        <v>0.1187929155639115</v>
       </c>
       <c r="C11" t="n">
-        <v>3.179823148673375e-11</v>
+        <v>0.09645827925620672</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1227449135007827</v>
+        <v>-0.0001423984064010851</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08555554504743805</v>
+        <v>0.01831363329217087</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001480740767788643</v>
+        <v>-8.558730500614956</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01408302636853061</v>
+        <v>0.2163359930785129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.194673854628515</v>
+        <v>21.37840965606743</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2360250067028567</v>
+        <v>7.510405107484367e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.58472478753753</v>
+        <v>-2796.467794362963</v>
       </c>
       <c r="C15" t="n">
-        <v>6.280264770524394e-05</v>
+        <v>0.01264920524928372</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2749.43432046986</v>
+        <v>-2959.010375824444</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01411847446179968</v>
+        <v>2.43966386043644e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3001.539545255418</v>
+        <v>-1819.775414833131</v>
       </c>
       <c r="C17" t="n">
-        <v>1.826209464650425e-05</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1776.349646886092</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2923532244932701</v>
+        <v>0.2812577936904534</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Toulouse.xlsx
+++ b/outputs/ML_Results/dist_commute/Toulouse.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ38851398" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ39217429" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ39628127" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ40061656" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ40451338" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ40855390" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ41261600" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ41660659" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ42060716" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ48847279" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ49714943" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ51480604" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ52194409" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ52608988" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ53234063" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ53697376" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ55332903" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ56206205" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,205 +466,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8559.4792142925</v>
+        <v>5618.448192043845</v>
       </c>
       <c r="C2" t="n">
-        <v>2.104703365986733e-10</v>
+        <v>0.0005368689446673612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85.56644859213452</v>
+        <v>1066.780679877436</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9100168092499552</v>
+        <v>0.4458551919505249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1038.474093382618</v>
+        <v>1524.186605780766</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1684449262855488</v>
+        <v>0.2112194673074106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1919.830912901279</v>
+        <v>2477.666499692059</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1348018027623009</v>
+        <v>0.04139937832387047</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>185.740277792478</v>
+        <v>-129.1741045627609</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01732532415407506</v>
+        <v>0.6399271295260166</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1508.61272696468</v>
+        <v>20.87587166337231</v>
       </c>
       <c r="C7" t="n">
-        <v>2.589641352173449e-15</v>
+        <v>0.9340555646688371</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-36.32249078929323</v>
+        <v>185.1223444496111</v>
       </c>
       <c r="C8" t="n">
-        <v>1.467628002996332e-05</v>
+        <v>0.01779536822588665</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>431.1455622058448</v>
+        <v>-1503.490608686839</v>
       </c>
       <c r="C9" t="n">
-        <v>1.175101843345304e-16</v>
+        <v>3.309686949773403e-15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>225.1144994421358</v>
+        <v>-36.14035459407799</v>
       </c>
       <c r="C10" t="n">
-        <v>1.073217817351589e-09</v>
+        <v>1.666727961948873e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08638309601867286</v>
+        <v>427.8206234530403</v>
       </c>
       <c r="C11" t="n">
-        <v>0.228526137107308</v>
+        <v>2.325394456984807e-16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0001370410827594626</v>
+        <v>224.4676034586755</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02578860560074952</v>
+        <v>1.24569183661994e-09</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1109709129630811</v>
+        <v>0.08478179620126169</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9873237093736872</v>
+        <v>0.238157375018378</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.59662067461386</v>
+        <v>-0.0001387101204365744</v>
       </c>
       <c r="C14" t="n">
-        <v>5.202620712388441e-06</v>
+        <v>0.02420451945068747</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2248.751920221544</v>
+        <v>0.01976822856661897</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04462858924189807</v>
+        <v>0.9977426109641491</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2987.105194089568</v>
+        <v>24.9418113704811</v>
       </c>
       <c r="C16" t="n">
-        <v>2.074905062507086e-05</v>
+        <v>3.832680885291201e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2208.481522366251</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0492103464243954</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-3001.905701474415</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.93457089526793e-05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2326.967088740204</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1665771482867518</v>
+      <c r="B19" t="n">
+        <v>-2299.714229795172</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1721263607824475</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,205 +736,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8309.14308277113</v>
+        <v>5890.542552449842</v>
       </c>
       <c r="C2" t="n">
-        <v>1.62237491557614e-09</v>
+        <v>0.0001035745181752882</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1094.805624574649</v>
+        <v>660.1649306899021</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1590588593882504</v>
+        <v>0.6073139176696973</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1959.281149070185</v>
+        <v>1844.591478587288</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01147282100397223</v>
+        <v>0.09053899724465217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-677.4080344482131</v>
+        <v>2712.838644442706</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5667766273750298</v>
+        <v>0.01245928468734357</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>234.5114139607753</v>
+        <v>-246.3884382463406</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002841903028612641</v>
+        <v>0.3695765629344554</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1783.81269440894</v>
+        <v>-57.53466265485469</v>
       </c>
       <c r="C7" t="n">
-        <v>7.026446231848277e-21</v>
+        <v>0.8189230324023323</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-39.10397731969555</v>
+        <v>230.8653902766377</v>
       </c>
       <c r="C8" t="n">
-        <v>3.875183611787796e-06</v>
+        <v>0.003357927648877384</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>463.6332288026471</v>
+        <v>-1786.671940442824</v>
       </c>
       <c r="C9" t="n">
-        <v>1.484227295772252e-18</v>
+        <v>6.639357168716106e-21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.6606185143538</v>
+        <v>-39.46583418656402</v>
       </c>
       <c r="C10" t="n">
-        <v>8.277000203851175e-09</v>
+        <v>3.272543707027027e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1002064085749313</v>
+        <v>462.5706703645513</v>
       </c>
       <c r="C11" t="n">
-        <v>0.155649489870486</v>
+        <v>2.020222069904291e-18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0001844164623483085</v>
+        <v>213.0486976397101</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003156211319440929</v>
+        <v>9.55878989261685e-09</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01193919792281317</v>
+        <v>0.09912349961281262</v>
       </c>
       <c r="C13" t="n">
-        <v>0.99863052723613</v>
+        <v>0.160973923656013</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25.24264602736938</v>
+        <v>-0.000185332828695452</v>
       </c>
       <c r="C14" t="n">
-        <v>6.544573652570229e-06</v>
+        <v>0.00303513402653569</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2984.867281723178</v>
+        <v>-0.1196160138907432</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007553186463040676</v>
+        <v>0.9862844417963053</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3581.448139510693</v>
+        <v>25.40008941521583</v>
       </c>
       <c r="C16" t="n">
-        <v>4.250138601556027e-07</v>
+        <v>5.58527314015804e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2910.56454356133</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.009391834057441675</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-3570.279309681874</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.712348269955746e-07</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-1145.129625431258</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.4914736723823991</v>
+      <c r="B19" t="n">
+        <v>-1102.591226528884</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5081885301995184</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,205 +1006,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8931.500701425597</v>
+        <v>6062.547055678753</v>
       </c>
       <c r="C2" t="n">
-        <v>5.22659381760032e-11</v>
+        <v>3.926897457783061e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>496.4167703936287</v>
+        <v>888.7959001347206</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5265697602032553</v>
+        <v>0.4769856849585725</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1352.839206589945</v>
+        <v>1723.190699856688</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08301988411563067</v>
+        <v>0.09902470625268756</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1449.380677945643</v>
+        <v>2587.610760054117</v>
       </c>
       <c r="C5" t="n">
-        <v>0.216055056443741</v>
+        <v>0.01279419455358925</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>205.5087619567472</v>
+        <v>-272.0477696817271</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008716459025500847</v>
+        <v>0.3224977235948105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1644.773959870839</v>
+        <v>127.5806149810696</v>
       </c>
       <c r="C7" t="n">
-        <v>4.891141269586353e-18</v>
+        <v>0.611533742637805</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-45.60125572321082</v>
+        <v>203.572407663854</v>
       </c>
       <c r="C8" t="n">
-        <v>5.788019384202165e-08</v>
+        <v>0.009392847201104036</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>450.0201426670487</v>
+        <v>-1644.373940532153</v>
       </c>
       <c r="C9" t="n">
-        <v>5.539630246177607e-18</v>
+        <v>5.248468214489373e-18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>258.4231545297431</v>
+        <v>-45.59937043840979</v>
       </c>
       <c r="C10" t="n">
-        <v>3.072641871714979e-12</v>
+        <v>6.032327969815196e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1505866782085918</v>
+        <v>445.1749449133308</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03430709222391803</v>
+        <v>1.45448238791927e-17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0001472130903816358</v>
+        <v>256.9335315539232</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01354641399318221</v>
+        <v>4.335668407579375e-12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.336972871115765</v>
+        <v>0.1461057964288296</v>
       </c>
       <c r="C13" t="n">
-        <v>0.631143160514041</v>
+        <v>0.04031881986828851</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22.33888436758924</v>
+        <v>-0.0001468661135909429</v>
       </c>
       <c r="C14" t="n">
-        <v>3.853072953585204e-05</v>
+        <v>0.01385617086376226</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2849.518211552358</v>
+        <v>3.368645536817242</v>
       </c>
       <c r="C15" t="n">
-        <v>0.009798753278414639</v>
+        <v>0.6277369279340586</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4021.181109881573</v>
+        <v>22.79914412542045</v>
       </c>
       <c r="C16" t="n">
-        <v>9.721755231894737e-09</v>
+        <v>2.601718924996843e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2750.943721502184</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01290060856285381</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-4028.216947719601</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9.396981704358372e-09</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2798.776755381859</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09858169099027267</v>
+      <c r="B19" t="n">
+        <v>-2773.935734894916</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1019117769975258</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,205 +1276,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8806.796907265918</v>
+        <v>6831.900639245618</v>
       </c>
       <c r="C2" t="n">
-        <v>1.430810888449753e-10</v>
+        <v>6.297975356141439e-06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1346.803444201805</v>
+        <v>667.8385256806546</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0944648399965085</v>
+        <v>0.6065898925318425</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2347.599304397963</v>
+        <v>2038.661607730201</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003452822730656717</v>
+        <v>0.06184322988578223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-511.7770640520671</v>
+        <v>3041.938631661363</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6699434250648812</v>
+        <v>0.00513301489909331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179.049273571018</v>
+        <v>-358.3177536100646</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02122158937610778</v>
+        <v>0.1884779223201302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1509.25977131059</v>
+        <v>-168.082706016223</v>
       </c>
       <c r="C7" t="n">
-        <v>1.179108793230331e-15</v>
+        <v>0.4999691236230579</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.287673230363</v>
+        <v>175.7440751942992</v>
       </c>
       <c r="C8" t="n">
-        <v>7.831235737443233e-06</v>
+        <v>0.02381005361207111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>363.9348707257268</v>
+        <v>-1512.169280580976</v>
       </c>
       <c r="C9" t="n">
-        <v>2.00371285510003e-12</v>
+        <v>1.092211559527945e-15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>230.5992288745629</v>
+        <v>-37.83358170322116</v>
       </c>
       <c r="C10" t="n">
-        <v>3.509957197825063e-10</v>
+        <v>5.936284128883305e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1024409138053081</v>
+        <v>363.3847676632122</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1472046090455995</v>
+        <v>2.334519679384342e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0001498544457121694</v>
+        <v>229.4739927023395</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01103951224305827</v>
+        <v>4.464786890073727e-10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.432226811669192</v>
+        <v>0.1018074708915626</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5206139873059128</v>
+        <v>0.15073949419909</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17.63778487602703</v>
+        <v>-0.0001510917534610766</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0012040025531448</v>
+        <v>0.01045573357478154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3153.444102883986</v>
+        <v>-4.79038114236022</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004127478805718771</v>
+        <v>0.4877884372027184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3546.794451671588</v>
+        <v>17.65685929051935</v>
       </c>
       <c r="C16" t="n">
-        <v>3.810784273923718e-07</v>
+        <v>0.001175951198041862</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-3065.601888945321</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.00539564439833319</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-3512.972681844576</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5.065491542285924e-07</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-1996.381649249989</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2323072644887631</v>
+      <c r="B19" t="n">
+        <v>-1954.036221720876</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2430410519740871</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,205 +1546,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8485.523670121347</v>
+        <v>6618.150188582629</v>
       </c>
       <c r="C2" t="n">
-        <v>7.791850940977217e-10</v>
+        <v>1.480042529695024e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>617.3672286805429</v>
+        <v>754.6970364795332</v>
       </c>
       <c r="C3" t="n">
-        <v>0.427744292432982</v>
+        <v>0.5608358860061116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1591.864915374179</v>
+        <v>1115.696317404776</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04012669570886505</v>
+        <v>0.308637846491555</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74.88671132634954</v>
+        <v>2091.146445265269</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9507555515827182</v>
+        <v>0.05539556575462627</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>177.162513169807</v>
+        <v>-66.61437898258949</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02421344669463003</v>
+        <v>0.8072861059927179</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1454.744086774182</v>
+        <v>-76.26359546760325</v>
       </c>
       <c r="C7" t="n">
-        <v>1.815010312762915e-14</v>
+        <v>0.7599194691984482</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-47.05751802141307</v>
+        <v>175.6877094617376</v>
       </c>
       <c r="C8" t="n">
-        <v>2.267537359155867e-08</v>
+        <v>0.02553559288570607</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>432.4057822346945</v>
+        <v>-1464.273727900306</v>
       </c>
       <c r="C9" t="n">
-        <v>1.444159158537377e-16</v>
+        <v>1.352777727711549e-14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>232.176776797333</v>
+        <v>-47.48802214823314</v>
       </c>
       <c r="C10" t="n">
-        <v>2.8725043465328e-10</v>
+        <v>1.736971169917701e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06719086712067363</v>
+        <v>432.8034353048556</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3442897403884454</v>
+        <v>1.481825874140916e-16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0001293929374899603</v>
+        <v>232.3687485838294</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03062848492933417</v>
+        <v>2.921845111686789e-10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.345430508210871</v>
+        <v>0.06749750061143625</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8462859845964477</v>
+        <v>0.34282327906667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25.0159823879047</v>
+        <v>-0.000129248989666795</v>
       </c>
       <c r="C14" t="n">
-        <v>1.15369204280982e-05</v>
+        <v>0.03094973215807676</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2875.0679391975</v>
+        <v>1.138903778093573</v>
       </c>
       <c r="C15" t="n">
-        <v>0.009352280930909609</v>
+        <v>0.8697588710674884</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3371.828457872727</v>
+        <v>24.87835865693804</v>
       </c>
       <c r="C16" t="n">
-        <v>1.354370557360546e-06</v>
+        <v>1.264386082428108e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2860.155869722803</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.009957883852096842</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-3339.553122972255</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.7681668437899e-06</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-1600.97834558835</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3342061836649873</v>
+      <c r="B19" t="n">
+        <v>-1586.640524067737</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3389489078226532</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,205 +1816,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9115.353010299475</v>
+        <v>6438.415355595213</v>
       </c>
       <c r="C2" t="n">
-        <v>3.889364591881043e-11</v>
+        <v>2.738410518265949e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.21829430906359</v>
+        <v>844.9091846801316</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9095917270772188</v>
+        <v>0.5209866844327251</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>983.6506777193122</v>
+        <v>996.4258230860958</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2190306448894407</v>
+        <v>0.3699239382567164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-739.8146131053441</v>
+        <v>1881.015266728347</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5450936830303266</v>
+        <v>0.08926944675779236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>210.8438177651651</v>
+        <v>210.2584464819822</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006979688293958795</v>
+        <v>0.4432498135952702</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1549.54118773107</v>
+        <v>275.1818468255935</v>
       </c>
       <c r="C7" t="n">
-        <v>3.078892094266292e-16</v>
+        <v>0.2712199871802419</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-42.22625253362901</v>
+        <v>212.1119045081734</v>
       </c>
       <c r="C8" t="n">
-        <v>3.501638114842269e-07</v>
+        <v>0.006714600268590417</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>408.9650882066287</v>
+        <v>-1549.643657891413</v>
       </c>
       <c r="C9" t="n">
-        <v>2.330514139274389e-15</v>
+        <v>3.264623383664654e-16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.433681199621</v>
+        <v>-41.90119083809721</v>
       </c>
       <c r="C10" t="n">
-        <v>2.506555849169713e-08</v>
+        <v>4.45984749289254e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08198519896160054</v>
+        <v>405.1079595344635</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2500015776660079</v>
+        <v>4.741056305590382e-15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0001237558061867247</v>
+        <v>205.9101464365653</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04198803009168137</v>
+        <v>2.070362349512164e-08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.415908191466152</v>
+        <v>0.07618858611577611</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8378884075182875</v>
+        <v>0.28597784532618</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25.4680967221373</v>
+        <v>-0.0001205557893727841</v>
       </c>
       <c r="C14" t="n">
-        <v>2.700056813535874e-06</v>
+        <v>0.04785920316842211</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2685.259660994704</v>
+        <v>-1.127746589091669</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01636818420562554</v>
+        <v>0.8705362684669322</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2983.772227029259</v>
+        <v>25.57583840892167</v>
       </c>
       <c r="C16" t="n">
-        <v>2.35000003394536e-05</v>
+        <v>2.41055044696719e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2737.743042474041</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01474209771190538</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-2982.789940408205</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.383763960273207e-05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2662.151621846941</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1107795939444428</v>
+      <c r="B19" t="n">
+        <v>-2597.764307807749</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1199817658475932</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,205 +2086,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11456.62263092298</v>
+        <v>8382.266876137128</v>
       </c>
       <c r="C2" t="n">
-        <v>4.890490271394243e-17</v>
+        <v>3.377476869745555e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-249.8590082214145</v>
+        <v>918.2663248800004</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7477685625579482</v>
+        <v>0.477148311522184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>610.604319336249</v>
+        <v>1116.895503879849</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4295846642259475</v>
+        <v>0.3073034411922436</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1798.515916640818</v>
+        <v>1973.881823804344</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1327547524589278</v>
+        <v>0.07021742467624428</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131.2032564278439</v>
+        <v>10.1160434488134</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09315952419990839</v>
+        <v>0.9704684210415944</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1574.625353065934</v>
+        <v>180.7823964903299</v>
       </c>
       <c r="C7" t="n">
-        <v>8.555261857981018e-17</v>
+        <v>0.4713424961981466</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-46.92193167789622</v>
+        <v>129.9758181564838</v>
       </c>
       <c r="C8" t="n">
-        <v>2.57319721577168e-08</v>
+        <v>0.09675260522355388</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>389.4527025677106</v>
+        <v>-1569.789802244399</v>
       </c>
       <c r="C9" t="n">
-        <v>7.468914910069069e-14</v>
+        <v>1.149037433236592e-16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.8916694414366</v>
+        <v>-46.35062476058816</v>
       </c>
       <c r="C10" t="n">
-        <v>1.044486680971026e-08</v>
+        <v>4.028209554991652e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03617853288152988</v>
+        <v>386.9324370572774</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6112909147623342</v>
+        <v>1.182459024033347e-13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-7.526117392886085e-05</v>
+        <v>210.8380135398679</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2346437821305851</v>
+        <v>1.298966969843166e-08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.574824635130463</v>
+        <v>0.03080687609063236</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6084127295232047</v>
+        <v>0.6658779722355854</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17.25488277075075</v>
+        <v>-7.376323090442723e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001543090236456346</v>
+        <v>0.2444544371829434</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4525.000438661249</v>
+        <v>-3.231393644653465</v>
       </c>
       <c r="C15" t="n">
-        <v>4.589903444257186e-05</v>
+        <v>0.643409551118506</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3754.565789107786</v>
+        <v>17.65241089420977</v>
       </c>
       <c r="C16" t="n">
-        <v>6.63038171530003e-08</v>
+        <v>0.001187158031430642</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-4533.791176302374</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.676956468068846e-05</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-3772.174878678966</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5.980275420474644e-08</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2491.455904664843</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1335628416931118</v>
+      <c r="B19" t="n">
+        <v>-2444.538290815042</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1414898385183437</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,205 +2356,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8264.237077695803</v>
+        <v>4504.387500696487</v>
       </c>
       <c r="C2" t="n">
-        <v>1.93698835288573e-09</v>
+        <v>0.004058387564993909</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-491.0758785794798</v>
+        <v>1715.371645771121</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5394962467236093</v>
+        <v>0.1938182810960265</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>539.2362456603779</v>
+        <v>1561.781987294132</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4988178776152311</v>
+        <v>0.1628749198540111</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2028.321358097021</v>
+        <v>2588.621419393343</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09517932393183867</v>
+        <v>0.02019795499532985</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>220.3795222031802</v>
+        <v>-95.32174791892635</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004254412343829724</v>
+        <v>0.7254074789759867</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1656.651025088943</v>
+        <v>92.88064183984653</v>
       </c>
       <c r="C7" t="n">
-        <v>1.391370274345014e-18</v>
+        <v>0.7085870788028334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-45.15748329531841</v>
+        <v>219.0612457857925</v>
       </c>
       <c r="C8" t="n">
-        <v>6.816211247173608e-08</v>
+        <v>0.004520626056668839</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>338.9008667333118</v>
+        <v>-1656.566557196843</v>
       </c>
       <c r="C9" t="n">
-        <v>6.319870694059182e-11</v>
+        <v>1.486150936009478e-18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>244.4645755035914</v>
+        <v>-45.05523450663889</v>
       </c>
       <c r="C10" t="n">
-        <v>3.007743549462916e-11</v>
+        <v>7.551408899344957e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1577121304786596</v>
+        <v>336.0111332070592</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02512127310977947</v>
+        <v>9.919514702424048e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0001434297032114345</v>
+        <v>244.4508580580164</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01810547652806192</v>
+        <v>3.189891385454189e-11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.294641344879539</v>
+        <v>0.1527922907244808</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8534556814127479</v>
+        <v>0.03034747916594729</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>39.39853574175816</v>
+        <v>-0.0001416588881810656</v>
       </c>
       <c r="C14" t="n">
-        <v>6.500153516197236e-11</v>
+        <v>0.01973720876512455</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3092.754430603717</v>
+        <v>1.480706772167383</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004990024303608332</v>
+        <v>0.8328262674679914</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3236.870871406436</v>
+        <v>39.72760031340675</v>
       </c>
       <c r="C16" t="n">
-        <v>2.834099774950492e-06</v>
+        <v>4.777424571109709e-11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-3053.506304372539</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.005775853840850245</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-3224.38236425084</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.155180828591201e-06</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2690.921084545842</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1049265661763645</v>
+      <c r="B19" t="n">
+        <v>-2633.50083286266</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1129036220710557</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,205 +2626,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9338.145806589659</v>
+        <v>5864.30028120421</v>
       </c>
       <c r="C2" t="n">
-        <v>2.690908754874282e-12</v>
+        <v>0.0001106695868438412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>412.5309312811909</v>
+        <v>1764.830687535304</v>
       </c>
       <c r="C3" t="n">
-        <v>0.576568427257081</v>
+        <v>0.1671158612468613</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1365.005319037104</v>
+        <v>2366.470583074986</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06350479891333878</v>
+        <v>0.03163222219900559</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1711.826162924905</v>
+        <v>3326.586958392139</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1408950632315795</v>
+        <v>0.00242315496478022</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>187.9575758739124</v>
+        <v>-249.5958110456688</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01601337676483489</v>
+        <v>0.3701458654322762</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1696.172908419456</v>
+        <v>-222.8836712333781</v>
       </c>
       <c r="C7" t="n">
-        <v>4.330914226337001e-19</v>
+        <v>0.3785152585983943</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.86348771633716</v>
+        <v>185.0328981536244</v>
       </c>
       <c r="C8" t="n">
-        <v>7.340366250535913e-06</v>
+        <v>0.01785466630455618</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>389.020306226909</v>
+        <v>-1697.820247241409</v>
       </c>
       <c r="C9" t="n">
-        <v>1.00004073000788e-13</v>
+        <v>4.312476771713396e-19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>243.3761587476874</v>
+        <v>-38.34097700138366</v>
       </c>
       <c r="C10" t="n">
-        <v>1.045321027768214e-10</v>
+        <v>5.939139940742712e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1187929155639115</v>
+        <v>389.9504878812746</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09645827925620672</v>
+        <v>9.765806157115098e-14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0001423984064010851</v>
+        <v>243.1088399754187</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01831363329217087</v>
+        <v>1.182989224855368e-10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.558730500614956</v>
+        <v>0.1195348077154476</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2163359930785129</v>
+        <v>0.09520038076337757</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21.37840965606743</v>
+        <v>-0.000143675411748146</v>
       </c>
       <c r="C14" t="n">
-        <v>7.510405107484367e-05</v>
+        <v>0.01743644863045044</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2796.467794362963</v>
+        <v>-8.619106439925712</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01264920524928372</v>
+        <v>0.2133465365226983</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2959.010375824444</v>
+        <v>21.62034157952186</v>
       </c>
       <c r="C16" t="n">
-        <v>2.43966386043644e-05</v>
+        <v>6.14380809760202e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2744.427224142684</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01476448716405002</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-2946.254311833468</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.680248815038074e-05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-1819.775414833131</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2812577936904534</v>
+      <c r="B19" t="n">
+        <v>-1796.48577149123</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2878950735528252</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Toulouse.xlsx
+++ b/outputs/ML_Results/dist_commute/Toulouse.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ48847279" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ49714943" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ51480604" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ52194409" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ52608988" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ53234063" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ53697376" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ55332903" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ56206205" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ50770182" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ51047039" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ51333357" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ51640008" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ51928688" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ52218877" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ52524127" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ52983622" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ53365800" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5618.448192043845</v>
+        <v>5520.149578124869</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005368689446673612</v>
+        <v>0.0006635514257536025</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1066.780679877436</v>
+        <v>1135.295008495046</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4458551919505249</v>
+        <v>0.4169337442938718</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1524.186605780766</v>
+        <v>1565.174034609483</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2112194673074106</v>
+        <v>0.1991034343280945</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2477.666499692059</v>
+        <v>2499.870622766805</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04139937832387047</v>
+        <v>0.03961117515797864</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-129.1741045627609</v>
+        <v>-134.2622860611554</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6399271295260166</v>
+        <v>0.6268051911859347</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.87587166337231</v>
+        <v>25.17511329145282</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9340555646688371</v>
+        <v>0.9205167456214898</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>185.1223444496111</v>
+        <v>185.7096711044404</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01779536822588665</v>
+        <v>0.01744509270610687</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1503.490608686839</v>
+        <v>-1497.744832399341</v>
       </c>
       <c r="C9" t="n">
-        <v>3.309686949773403e-15</v>
+        <v>4.162212070572952e-15</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-36.14035459407799</v>
+        <v>-35.97938243397161</v>
       </c>
       <c r="C10" t="n">
-        <v>1.666727961948873e-05</v>
+        <v>1.816559795261504e-05</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>427.8206234530403</v>
+        <v>433.0373299677287</v>
       </c>
       <c r="C11" t="n">
-        <v>2.325394456984807e-16</v>
+        <v>8.434464839918117e-17</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>224.4676034586755</v>
+        <v>233.2386970056818</v>
       </c>
       <c r="C12" t="n">
-        <v>1.24569183661994e-09</v>
+        <v>1.478120030634492e-10</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.08478179620126169</v>
+        <v>0.03976886470917582</v>
       </c>
       <c r="C13" t="n">
-        <v>0.238157375018378</v>
+        <v>0.5335075165826185</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001387101204365744</v>
+        <v>-0.0001584240669459721</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02420451945068747</v>
+        <v>0.008105779934408143</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01976822856661897</v>
+        <v>-0.8616388993039621</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9977426109641491</v>
+        <v>0.901445111049801</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.9418113704811</v>
+        <v>24.68104549188475</v>
       </c>
       <c r="C16" t="n">
-        <v>3.832680885291201e-06</v>
+        <v>4.773207234171706e-06</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2208.481522366251</v>
+        <v>-2260.247340644322</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0492103464243954</v>
+        <v>0.04402875575784045</v>
       </c>
     </row>
     <row r="18">
@@ -674,23 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3001.905701474415</v>
+        <v>-2791.714296240857</v>
       </c>
       <c r="C18" t="n">
-        <v>1.93457089526793e-05</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-2299.714229795172</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1721263607824475</v>
+        <v>4.655937244196603e-05</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5890.542552449842</v>
+        <v>5838.495335405782</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001035745181752882</v>
+        <v>0.000116577255733311</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>660.1649306899021</v>
+        <v>696.7464570705554</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6073139176696973</v>
+        <v>0.5871835736089427</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1844.591478587288</v>
+        <v>1859.327610118159</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09053899724465217</v>
+        <v>0.08790890176851181</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2712.838644442706</v>
+        <v>2718.682963602389</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01245928468734357</v>
+        <v>0.01226356734816285</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246.3884382463406</v>
+        <v>-247.0312625489537</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3695765629344554</v>
+        <v>0.3682987264505115</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-57.53466265485469</v>
+        <v>-55.05640360783593</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8189230324023323</v>
+        <v>0.8265672437224313</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230.8653902766377</v>
+        <v>232.6740610571538</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003357927648877384</v>
+        <v>0.003098149176279669</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1786.671940442824</v>
+        <v>-1784.46589492562</v>
       </c>
       <c r="C9" t="n">
-        <v>6.639357168716106e-21</v>
+        <v>7.265183795315212e-21</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-39.46583418656402</v>
+        <v>-39.33814126006007</v>
       </c>
       <c r="C10" t="n">
-        <v>3.272543707027027e-06</v>
+        <v>3.494674959807475e-06</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>462.5706703645513</v>
+        <v>465.122454412605</v>
       </c>
       <c r="C11" t="n">
-        <v>2.020222069904291e-18</v>
+        <v>1.064289376927823e-18</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>213.0486976397101</v>
+        <v>217.4467470223215</v>
       </c>
       <c r="C12" t="n">
-        <v>9.55878989261685e-09</v>
+        <v>2.633855146583468e-09</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.09912349961281262</v>
+        <v>0.07860687115950782</v>
       </c>
       <c r="C13" t="n">
-        <v>0.160973923656013</v>
+        <v>0.2160693857004505</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.000185332828695452</v>
+        <v>-0.0001958281114517537</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00303513402653569</v>
+        <v>0.00120393889352552</v>
       </c>
     </row>
     <row r="15">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1196160138907432</v>
+        <v>-0.5266174472807741</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9862844417963053</v>
+        <v>0.9394308651656182</v>
       </c>
     </row>
     <row r="16">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.40008941521583</v>
+        <v>25.27094511913631</v>
       </c>
       <c r="C16" t="n">
-        <v>5.58527314015804e-06</v>
+        <v>6.140869253904249e-06</v>
       </c>
     </row>
     <row r="17">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2910.56454356133</v>
+        <v>-2927.624635096915</v>
       </c>
       <c r="C17" t="n">
-        <v>0.009391834057441675</v>
+        <v>0.008961814333516359</v>
       </c>
     </row>
     <row r="18">
@@ -944,23 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3570.279309681874</v>
+        <v>-3472.058174136131</v>
       </c>
       <c r="C18" t="n">
-        <v>4.712348269955746e-07</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-1102.591226528884</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5081885301995184</v>
+        <v>5.418549624066358e-07</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6062.547055678753</v>
+        <v>5928.705203363388</v>
       </c>
       <c r="C2" t="n">
-        <v>3.926897457783061e-05</v>
+        <v>5.658039967149445e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>888.7959001347206</v>
+        <v>970.297193275904</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4769856849585725</v>
+        <v>0.4372457466122901</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1723.190699856688</v>
+        <v>1756.42714161549</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09902470625268756</v>
+        <v>0.09267752017890664</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2587.610760054117</v>
+        <v>2597.284254045387</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01279419455358925</v>
+        <v>0.01247685224203425</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-272.0477696817271</v>
+        <v>-264.3597648772134</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3224977235948105</v>
+        <v>0.3363717576638376</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>127.5806149810696</v>
+        <v>135.891591551299</v>
       </c>
       <c r="C7" t="n">
-        <v>0.611533742637805</v>
+        <v>0.5885158786942906</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>203.572407663854</v>
+        <v>207.2941417154152</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009392847201104036</v>
+        <v>0.008156265256547574</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1644.373940532153</v>
+        <v>-1640.704134171414</v>
       </c>
       <c r="C9" t="n">
-        <v>5.248468214489373e-18</v>
+        <v>6.25269450738562e-18</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-45.59937043840979</v>
+        <v>-45.24405305856362</v>
       </c>
       <c r="C10" t="n">
-        <v>6.032327969815196e-08</v>
+        <v>7.589441992969793e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>445.1749449133308</v>
+        <v>450.9604767916963</v>
       </c>
       <c r="C11" t="n">
-        <v>1.45448238791927e-17</v>
+        <v>4.751043313311809e-18</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>256.9335315539232</v>
+        <v>267.4708895872609</v>
       </c>
       <c r="C12" t="n">
-        <v>4.335668407579375e-12</v>
+        <v>2.512194884988686e-13</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1461057964288296</v>
+        <v>0.09090282765130533</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04031881986828851</v>
+        <v>0.1474849492557171</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001468661135909429</v>
+        <v>-0.0001706175340967098</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01385617086376226</v>
+        <v>0.003211994270413143</v>
       </c>
     </row>
     <row r="15">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.368645536817242</v>
+        <v>2.39387257308602</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6277369279340586</v>
+        <v>0.7294822160087251</v>
       </c>
     </row>
     <row r="16">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.79914412542045</v>
+        <v>22.54413657940345</v>
       </c>
       <c r="C16" t="n">
-        <v>2.601718924996843e-05</v>
+        <v>3.184641469822706e-05</v>
       </c>
     </row>
     <row r="17">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2750.943721502184</v>
+        <v>-2797.062064155552</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01290060856285381</v>
+        <v>0.01145347949720086</v>
       </c>
     </row>
     <row r="18">
@@ -1214,23 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4028.216947719601</v>
+        <v>-3757.562291020631</v>
       </c>
       <c r="C18" t="n">
-        <v>9.396981704358372e-09</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-2773.935734894916</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1019117769975258</v>
+        <v>3.562748044857019e-08</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6831.900639245618</v>
+        <v>6739.520061722007</v>
       </c>
       <c r="C2" t="n">
-        <v>6.297975356141439e-06</v>
+        <v>8.152793319480247e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>667.8385256806546</v>
+        <v>721.5571546109293</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6065898925318425</v>
+        <v>0.5777348293016347</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2038.661607730201</v>
+        <v>2065.53705899171</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06184322988578223</v>
+        <v>0.05844062796358515</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3041.938631661363</v>
+        <v>3053.897459773011</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00513301489909331</v>
+        <v>0.004960617949508002</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-358.3177536100646</v>
+        <v>-358.1195702074878</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1884779223201302</v>
+        <v>0.1887386574802699</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-168.082706016223</v>
+        <v>-159.2230136932005</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4999691236230579</v>
+        <v>0.5226553460420545</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.7440751942992</v>
+        <v>178.7867413409191</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02381005361207111</v>
+        <v>0.0214200272110244</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1512.169280580976</v>
+        <v>-1507.930853530883</v>
       </c>
       <c r="C9" t="n">
-        <v>1.092211559527945e-15</v>
+        <v>1.29682703671483e-15</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.83358170322116</v>
+        <v>-37.73527654003422</v>
       </c>
       <c r="C10" t="n">
-        <v>5.936284128883305e-06</v>
+        <v>6.273158491476749e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>363.3847676632122</v>
+        <v>367.8602254483382</v>
       </c>
       <c r="C11" t="n">
-        <v>2.334519679384342e-12</v>
+        <v>1.094538862688983e-12</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>229.4739927023395</v>
+        <v>236.6583258470568</v>
       </c>
       <c r="C12" t="n">
-        <v>4.464786890073727e-10</v>
+        <v>6.895093132912143e-11</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1018074708915626</v>
+        <v>0.06241849384467137</v>
       </c>
       <c r="C13" t="n">
-        <v>0.15073949419909</v>
+        <v>0.3163880077478819</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001510917534610766</v>
+        <v>-0.0001661779466927981</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01045573357478154</v>
+        <v>0.003904785510839366</v>
       </c>
     </row>
     <row r="15">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.79038114236022</v>
+        <v>-5.521735284245842</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4877884372027184</v>
+        <v>0.421954610087784</v>
       </c>
     </row>
     <row r="16">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.65685929051935</v>
+        <v>17.48314083727431</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001175951198041862</v>
+        <v>0.001309707157036379</v>
       </c>
     </row>
     <row r="17">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3065.601888945321</v>
+        <v>-3116.219031383685</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00539564439833319</v>
+        <v>0.004648918601730384</v>
       </c>
     </row>
     <row r="18">
@@ -1484,23 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3512.972681844576</v>
+        <v>-3326.043844671928</v>
       </c>
       <c r="C18" t="n">
-        <v>5.065491542285924e-07</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-1954.036221720876</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2430410519740871</v>
+        <v>1.024821233859195e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6618.150188582629</v>
+        <v>6559.796635692211</v>
       </c>
       <c r="C2" t="n">
-        <v>1.480042529695024e-05</v>
+        <v>1.731381305080628e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>754.6970364795332</v>
+        <v>785.0924279688405</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5608358860061116</v>
+        <v>0.5450392673549425</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1115.696317404776</v>
+        <v>1123.780714611285</v>
       </c>
       <c r="C4" t="n">
-        <v>0.308637846491555</v>
+        <v>0.3051272503233036</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2091.146445265269</v>
+        <v>2087.111598440859</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05539556575462627</v>
+        <v>0.05586380586015058</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-66.61437898258949</v>
+        <v>-65.52833137583337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8072861059927179</v>
+        <v>0.810364435373518</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-76.26359546760325</v>
+        <v>-70.79614295211658</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7599194691984482</v>
+        <v>0.7765976003344549</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.6877094617376</v>
+        <v>177.854273227008</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02553559288570607</v>
+        <v>0.02371682624683942</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1464.273727900306</v>
+        <v>-1458.161195841899</v>
       </c>
       <c r="C9" t="n">
-        <v>1.352777727711549e-14</v>
+        <v>1.677626571788219e-14</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-47.48802214823314</v>
+        <v>-47.36815726392355</v>
       </c>
       <c r="C10" t="n">
-        <v>1.736971169917701e-08</v>
+        <v>1.878466651723464e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>432.8034353048556</v>
+        <v>436.3179806572188</v>
       </c>
       <c r="C11" t="n">
-        <v>1.481825874140916e-16</v>
+        <v>7.11122756349957e-17</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>232.3687485838294</v>
+        <v>238.5639735914213</v>
       </c>
       <c r="C12" t="n">
-        <v>2.921845111686789e-10</v>
+        <v>4.947247139880983e-11</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06749750061143625</v>
+        <v>0.0359657818406048</v>
       </c>
       <c r="C13" t="n">
-        <v>0.34282327906667</v>
+        <v>0.5683878440798551</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.000129248989666795</v>
+        <v>-0.0001427193046737796</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03094973215807676</v>
+        <v>0.01423714539596687</v>
       </c>
     </row>
     <row r="15">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.138903778093573</v>
+        <v>0.6297313211344182</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8697588710674884</v>
+        <v>0.9275489539946449</v>
       </c>
     </row>
     <row r="16">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.87835865693804</v>
+        <v>24.69233534972366</v>
       </c>
       <c r="C16" t="n">
-        <v>1.264386082428108e-05</v>
+        <v>1.449928143700839e-05</v>
       </c>
     </row>
     <row r="17">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2860.155869722803</v>
+        <v>-2899.832810822007</v>
       </c>
       <c r="C17" t="n">
-        <v>0.009957883852096842</v>
+        <v>0.008926203300417932</v>
       </c>
     </row>
     <row r="18">
@@ -1754,23 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3339.553122972255</v>
+        <v>-3200.14755114092</v>
       </c>
       <c r="C18" t="n">
-        <v>1.7681668437899e-06</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-1586.640524067737</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3389489078226532</v>
+        <v>2.837018971497251e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6438.415355595213</v>
+        <v>6326.416447817503</v>
       </c>
       <c r="C2" t="n">
-        <v>2.738410518265949e-05</v>
+        <v>3.702293707580808e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>844.9091846801316</v>
+        <v>901.7091781101385</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5209866844327251</v>
+        <v>0.4932583368643093</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>996.4258230860958</v>
+        <v>1025.553729732536</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3699239382567164</v>
+        <v>0.3561000653989506</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1881.015266728347</v>
+        <v>1886.000232126638</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08926944675779236</v>
+        <v>0.08846939688478933</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>210.2584464819822</v>
+        <v>209.4800830707287</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4432498135952702</v>
+        <v>0.4450043824805253</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>275.1818468255935</v>
+        <v>282.6788074317637</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2712199871802419</v>
+        <v>0.2583601137437564</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>212.1119045081734</v>
+        <v>217.8443442645721</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006714600268590417</v>
+        <v>0.005326907402383683</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1549.643657891413</v>
+        <v>-1542.175916421855</v>
       </c>
       <c r="C9" t="n">
-        <v>3.264623383664654e-16</v>
+        <v>4.455440126443583e-16</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-41.90119083809721</v>
+        <v>-41.52890693233863</v>
       </c>
       <c r="C10" t="n">
-        <v>4.45984749289254e-07</v>
+        <v>5.591159249367325e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>405.1079595344635</v>
+        <v>410.832051902947</v>
       </c>
       <c r="C11" t="n">
-        <v>4.741056305590382e-15</v>
+        <v>1.684041036617059e-15</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>205.9101464365653</v>
+        <v>215.9904752259066</v>
       </c>
       <c r="C12" t="n">
-        <v>2.070362349512164e-08</v>
+        <v>2.337988184263703e-09</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07618858611577611</v>
+        <v>0.0254315210012511</v>
       </c>
       <c r="C13" t="n">
-        <v>0.28597784532618</v>
+        <v>0.6888540201109155</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001205557893727841</v>
+        <v>-0.0001421529889137604</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04785920316842211</v>
+        <v>0.01659233578802255</v>
       </c>
     </row>
     <row r="15">
@@ -1985,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.127746589091669</v>
+        <v>-2.181473981442726</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8705362684669322</v>
+        <v>0.7514458757340028</v>
       </c>
     </row>
     <row r="16">
@@ -1998,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.57583840892167</v>
+        <v>25.21721215230158</v>
       </c>
       <c r="C16" t="n">
-        <v>2.41055044696719e-06</v>
+        <v>3.269530255136711e-06</v>
       </c>
     </row>
     <row r="17">
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2737.743042474041</v>
+        <v>-2795.701423865087</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01474209771190538</v>
+        <v>0.01272901075197635</v>
       </c>
     </row>
     <row r="18">
@@ -2024,23 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2982.789940408205</v>
+        <v>-2744.280246554221</v>
       </c>
       <c r="C18" t="n">
-        <v>2.383763960273207e-05</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-2597.764307807749</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1199817658475932</v>
+        <v>6.810418623313785e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8382.266876137128</v>
+        <v>8271.268243104223</v>
       </c>
       <c r="C2" t="n">
-        <v>3.377476869745555e-08</v>
+        <v>4.92847638729924e-08</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>918.2663248800004</v>
+        <v>987.6364517215854</v>
       </c>
       <c r="C3" t="n">
-        <v>0.477148311522184</v>
+        <v>0.444260827296299</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1116.895503879849</v>
+        <v>1136.391605487134</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3073034411922436</v>
+        <v>0.298958922214169</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1973.881823804344</v>
+        <v>1975.863509018915</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07021742467624428</v>
+        <v>0.06996922071798958</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.1160434488134</v>
+        <v>14.13837829870243</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9704684210415944</v>
+        <v>0.9587378885549769</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>180.7823964903299</v>
+        <v>188.6394659317387</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4713424961981466</v>
+        <v>0.4522427074702255</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.9758181564838</v>
+        <v>134.3785936007096</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09675260522355388</v>
+        <v>0.08577814367061232</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1569.789802244399</v>
+        <v>-1564.302097778532</v>
       </c>
       <c r="C9" t="n">
-        <v>1.149037433236592e-16</v>
+        <v>1.455015493628608e-16</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-46.35062476058816</v>
+        <v>-46.19136448100091</v>
       </c>
       <c r="C10" t="n">
-        <v>4.028209554991652e-08</v>
+        <v>4.484822420917758e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>386.9324370572774</v>
+        <v>393.1044896167524</v>
       </c>
       <c r="C11" t="n">
-        <v>1.182459024033347e-13</v>
+        <v>4.029706676622401e-14</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>210.8380135398679</v>
+        <v>220.8686337787698</v>
       </c>
       <c r="C12" t="n">
-        <v>1.298966969843166e-08</v>
+        <v>1.374402499256352e-09</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03080687609063236</v>
+        <v>-0.01448735038838554</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6658779722355854</v>
+        <v>0.8218961800619704</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.376323090442723e-05</v>
+        <v>-9.764387907497561e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2444544371829434</v>
+        <v>0.1110047150577466</v>
       </c>
     </row>
     <row r="15">
@@ -2255,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.231393644653465</v>
+        <v>-4.081246050048296</v>
       </c>
       <c r="C15" t="n">
-        <v>0.643409551118506</v>
+        <v>0.557452058840776</v>
       </c>
     </row>
     <row r="16">
@@ -2268,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.65241089420977</v>
+        <v>17.36087438362159</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001187158031430642</v>
+        <v>0.001421738936579649</v>
       </c>
     </row>
     <row r="17">
@@ -2281,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4533.791176302374</v>
+        <v>-4551.188922526196</v>
       </c>
       <c r="C17" t="n">
-        <v>4.676956468068846e-05</v>
+        <v>4.378253069164569e-05</v>
       </c>
     </row>
     <row r="18">
@@ -2294,23 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3772.174878678966</v>
+        <v>-3555.267913068297</v>
       </c>
       <c r="C18" t="n">
-        <v>5.980275420474644e-08</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-2444.538290815042</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1414898385183437</v>
+        <v>1.724868687084527e-07</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4504.387500696487</v>
+        <v>4403.348716321704</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004058387564993909</v>
+        <v>0.004937643296713208</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1715.371645771121</v>
+        <v>1795.228499437282</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1938182810960265</v>
+        <v>0.1736316986016009</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1561.781987294132</v>
+        <v>1592.142728126847</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1628749198540111</v>
+        <v>0.1548582842781751</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2588.621419393343</v>
+        <v>2594.781674304048</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02019795499532985</v>
+        <v>0.01992111094183764</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-95.32174791892635</v>
+        <v>-92.71493173270662</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7254074789759867</v>
+        <v>0.7326599909956028</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92.88064183984653</v>
+        <v>98.98531329188242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7085870788028334</v>
+        <v>0.6904047630761947</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>219.0612457857925</v>
+        <v>222.7924062976234</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004520626056668839</v>
+        <v>0.003870034726499145</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1656.566557196843</v>
+        <v>-1649.485160000513</v>
       </c>
       <c r="C9" t="n">
-        <v>1.486150936009478e-18</v>
+        <v>2.049100825903379e-18</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-45.05523450663889</v>
+        <v>-44.98280512265942</v>
       </c>
       <c r="C10" t="n">
-        <v>7.551408899344957e-08</v>
+        <v>7.953999300802128e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>336.0111332070592</v>
+        <v>342.253547367943</v>
       </c>
       <c r="C11" t="n">
-        <v>9.919514702424048e-11</v>
+        <v>3.953643508574765e-11</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>244.4508580580164</v>
+        <v>254.5059828977107</v>
       </c>
       <c r="C12" t="n">
-        <v>3.189891385454189e-11</v>
+        <v>2.333859916974085e-12</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1527922907244808</v>
+        <v>0.1021868120670466</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03034747916594729</v>
+        <v>0.1043798968166938</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001416588881810656</v>
+        <v>-0.0001646500366954123</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01973720876512455</v>
+        <v>0.005277617788349292</v>
       </c>
     </row>
     <row r="15">
@@ -2525,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.480706772167383</v>
+        <v>0.452980588321076</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8328262674679914</v>
+        <v>0.9483005652902545</v>
       </c>
     </row>
     <row r="16">
@@ -2538,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>39.72760031340675</v>
+        <v>39.39639737512017</v>
       </c>
       <c r="C16" t="n">
-        <v>4.777424571109709e-11</v>
+        <v>6.754024648623328e-11</v>
       </c>
     </row>
     <row r="17">
@@ -2551,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3053.506304372539</v>
+        <v>-3103.015992660856</v>
       </c>
       <c r="C17" t="n">
-        <v>0.005775853840850245</v>
+        <v>0.005021552272751701</v>
       </c>
     </row>
     <row r="18">
@@ -2564,23 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3224.38236425084</v>
+        <v>-2987.576935329595</v>
       </c>
       <c r="C18" t="n">
-        <v>3.155180828591201e-06</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-2633.50083286266</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1129036220710557</v>
+        <v>9.756304719471286e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5864.30028120421</v>
+        <v>5795.9898528828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001106695868438412</v>
+        <v>0.0001311210661651284</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1764.830687535304</v>
+        <v>1804.120529827187</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1671158612468613</v>
+        <v>0.1576986062544346</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2366.470583074986</v>
+        <v>2378.085906941533</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03163222219900559</v>
+        <v>0.03079988732272424</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3326.586958392139</v>
+        <v>3320.580221677532</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00242315496478022</v>
+        <v>0.002467445473558524</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249.5958110456688</v>
+        <v>-245.821808347693</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3701458654322762</v>
+        <v>0.3773927505324001</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-222.8836712333781</v>
+        <v>-215.983807432674</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3785152585983943</v>
+        <v>0.3933017556264021</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>185.0328981536244</v>
+        <v>189.017237378631</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01785466630455618</v>
+        <v>0.01542043802008812</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1697.820247241409</v>
+        <v>-1693.897873503057</v>
       </c>
       <c r="C9" t="n">
-        <v>4.312476771713396e-19</v>
+        <v>5.114527352570434e-19</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-38.34097700138366</v>
+        <v>-38.26290600208542</v>
       </c>
       <c r="C10" t="n">
-        <v>5.939139940742712e-06</v>
+        <v>6.199930777852967e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>389.9504878812746</v>
+        <v>394.0457621194626</v>
       </c>
       <c r="C11" t="n">
-        <v>9.765806157115098e-14</v>
+        <v>4.624688626388883e-14</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>243.1088399754187</v>
+        <v>249.6563989449592</v>
       </c>
       <c r="C12" t="n">
-        <v>1.182989224855368e-10</v>
+        <v>2.027345624287322e-11</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1195348077154476</v>
+        <v>0.08348275931696768</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09520038076337757</v>
+        <v>0.1857821841010981</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.000143675411748146</v>
+        <v>-0.0001584814771505337</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01743644863045044</v>
+        <v>0.007044533053970575</v>
       </c>
     </row>
     <row r="15">
@@ -2795,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.619106439925712</v>
+        <v>-9.263802843109753</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2133465365226983</v>
+        <v>0.1793946455712903</v>
       </c>
     </row>
     <row r="16">
@@ -2808,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.62034157952186</v>
+        <v>21.44069583090514</v>
       </c>
       <c r="C16" t="n">
-        <v>6.14380809760202e-05</v>
+        <v>7.012079344868741e-05</v>
       </c>
     </row>
     <row r="17">
@@ -2821,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2744.427224142684</v>
+        <v>-2787.642451523442</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01476448716405002</v>
+        <v>0.01320997912816224</v>
       </c>
     </row>
     <row r="18">
@@ -2834,23 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2946.254311833468</v>
+        <v>-2778.598718324464</v>
       </c>
       <c r="C18" t="n">
-        <v>2.680248815038074e-05</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-1796.48577149123</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2878950735528252</v>
+        <v>4.812910318302845e-05</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Toulouse.xlsx
+++ b/outputs/ML_Results/dist_commute/Toulouse.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ50770182" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ51047039" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ51333357" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ51640008" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ51928688" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ52218877" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ52524127" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ52983622" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ53365800" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ52899126" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ53262222" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ53672836" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ54050947" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ54413312" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ54807379" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ55217197" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ55627265" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ56061177" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5520.149578124869</v>
+        <v>5528.440425783396</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006635514257536025</v>
+        <v>0.0006527366437381383</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1135.295008495046</v>
+        <v>1124.665680169997</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4169337442938718</v>
+        <v>0.4213128702904058</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1565.174034609483</v>
+        <v>1561.350267073795</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1991034343280945</v>
+        <v>0.2001777701715313</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2499.870622766805</v>
+        <v>2495.203471962636</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03961117515797864</v>
+        <v>0.03997179580284731</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134.2622860611554</v>
+        <v>-136.2942653254474</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6268051911859347</v>
+        <v>0.6215953680347435</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.17511329145282</v>
+        <v>23.31032259024505</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9205167456214898</v>
+        <v>0.9263753723099379</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>185.7096711044404</v>
+        <v>186.1767520293468</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01744509270610687</v>
+        <v>0.0171436537358896</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1497.744832399341</v>
+        <v>-1498.390265372565</v>
       </c>
       <c r="C9" t="n">
-        <v>4.162212070572952e-15</v>
+        <v>4.031956440869804e-15</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-35.97938243397161</v>
+        <v>-35.97210063925021</v>
       </c>
       <c r="C10" t="n">
-        <v>1.816559795261504e-05</v>
+        <v>1.820801461875548e-05</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>433.0373299677287</v>
+        <v>433.6249887716831</v>
       </c>
       <c r="C11" t="n">
-        <v>8.434464839918117e-17</v>
+        <v>7.828292243300847e-17</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>233.2386970056818</v>
+        <v>233.728259121291</v>
       </c>
       <c r="C12" t="n">
-        <v>1.478120030634492e-10</v>
+        <v>1.628070966781333e-10</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03976886470917582</v>
+        <v>0.04395569171300271</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5335075165826185</v>
+        <v>0.4952993848792825</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001584240669459721</v>
+        <v>-0.0001625310717837175</v>
       </c>
       <c r="C14" t="n">
-        <v>0.008105779934408143</v>
+        <v>0.006902492892446562</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.8616388993039621</v>
+        <v>-0.7531338401228096</v>
       </c>
       <c r="C15" t="n">
-        <v>0.901445111049801</v>
+        <v>0.9136189780363243</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.68104549188475</v>
+        <v>24.63416148143385</v>
       </c>
       <c r="C16" t="n">
-        <v>4.773207234171706e-06</v>
+        <v>4.949274908922603e-06</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2260.247340644322</v>
+        <v>-2221.575312939248</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04402875575784045</v>
+        <v>0.04779199824999053</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2791.714296240857</v>
+        <v>-2840.159733608198</v>
       </c>
       <c r="C18" t="n">
-        <v>4.655937244196603e-05</v>
+        <v>3.354615792465299e-05</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5838.495335405782</v>
+        <v>5833.382186438625</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000116577255733311</v>
+        <v>0.0001189008820837029</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>696.7464570705554</v>
+        <v>683.0938620581164</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5871835736089427</v>
+        <v>0.5945195556694053</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1859.327610118159</v>
+        <v>1856.987006245935</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08790890176851181</v>
+        <v>0.0882839627681147</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2718.682963602389</v>
+        <v>2715.359523213888</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01226356734816285</v>
+        <v>0.01236294017183958</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-247.0312625489537</v>
+        <v>-249.9083195012495</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3682987264505115</v>
+        <v>0.3627137865054162</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-55.05640360783593</v>
+        <v>-57.29523194520837</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8265672437224313</v>
+        <v>0.8195844836698112</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>232.6740610571538</v>
+        <v>233.8850266701963</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003098149176279669</v>
+        <v>0.002945174648900429</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1784.46589492562</v>
+        <v>-1785.347984879873</v>
       </c>
       <c r="C9" t="n">
-        <v>7.265183795315212e-21</v>
+        <v>6.86909209791719e-21</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-39.33814126006007</v>
+        <v>-39.30804099781007</v>
       </c>
       <c r="C10" t="n">
-        <v>3.494674959807475e-06</v>
+        <v>3.545508052062961e-06</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>465.122454412605</v>
+        <v>466.4109303763979</v>
       </c>
       <c r="C11" t="n">
-        <v>1.064289376927823e-18</v>
+        <v>8.808054057814205e-19</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>217.4467470223215</v>
+        <v>218.9417495203039</v>
       </c>
       <c r="C12" t="n">
-        <v>2.633855146583468e-09</v>
+        <v>2.401536284720001e-09</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07860687115950782</v>
+        <v>0.0880356704046259</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2160693857004505</v>
+        <v>0.1702756544273008</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001958281114517537</v>
+        <v>-0.0002039251602150829</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00120393889352552</v>
+        <v>0.0007996780462920215</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.5266174472807741</v>
+        <v>-0.4826005593666678</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9394308651656182</v>
+        <v>0.9443603993213863</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.27094511913631</v>
+        <v>25.19822823756381</v>
       </c>
       <c r="C16" t="n">
-        <v>6.140869253904249e-06</v>
+        <v>6.497625756007282e-06</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2927.624635096915</v>
+        <v>-2841.453566257378</v>
       </c>
       <c r="C17" t="n">
-        <v>0.008961814333516359</v>
+        <v>0.01121496935591279</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3472.058174136131</v>
+        <v>-3543.89193946202</v>
       </c>
       <c r="C18" t="n">
-        <v>5.418549624066358e-07</v>
+        <v>3.03910551149471e-07</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5928.705203363388</v>
+        <v>5919.254481081285</v>
       </c>
       <c r="C2" t="n">
-        <v>5.658039967149445e-05</v>
+        <v>5.852562205501254e-05</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>970.297193275904</v>
+        <v>966.8553765927626</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4372457466122901</v>
+        <v>0.4388566537765172</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1756.42714161549</v>
+        <v>1754.68930634141</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09267752017890664</v>
+        <v>0.09299008552431957</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2597.284254045387</v>
+        <v>2593.904911768191</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01247685224203425</v>
+        <v>0.01258898911396818</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-264.3597648772134</v>
+        <v>-265.1779508231285</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3363717576638376</v>
+        <v>0.3348625226267544</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>135.891591551299</v>
+        <v>135.0834204690656</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5885158786942906</v>
+        <v>0.5906794081507314</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207.2941417154152</v>
+        <v>207.673936547255</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008156265256547574</v>
+        <v>0.008033411590379317</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1640.704134171414</v>
+        <v>-1641.730107392266</v>
       </c>
       <c r="C9" t="n">
-        <v>6.25269450738562e-18</v>
+        <v>5.933656391164839e-18</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-45.24405305856362</v>
+        <v>-45.23305895735614</v>
       </c>
       <c r="C10" t="n">
-        <v>7.589441992969793e-08</v>
+        <v>7.647149846290405e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>450.9604767916963</v>
+        <v>451.3946845305774</v>
       </c>
       <c r="C11" t="n">
-        <v>4.751043313311809e-18</v>
+        <v>4.520285131157149e-18</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>267.4708895872609</v>
+        <v>268.1143431506945</v>
       </c>
       <c r="C12" t="n">
-        <v>2.512194884988686e-13</v>
+        <v>2.832005473872837e-13</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.09090282765130533</v>
+        <v>0.0921167971897883</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1474849492557171</v>
+        <v>0.145706220854713</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001706175340967098</v>
+        <v>-0.0001720556586092827</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003211994270413143</v>
+        <v>0.003099516209397802</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.39387257308602</v>
+        <v>2.587792744318047</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7294822160087251</v>
+        <v>0.7079516311536642</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.54413657940345</v>
+        <v>22.53220872624911</v>
       </c>
       <c r="C16" t="n">
-        <v>3.184641469822706e-05</v>
+        <v>3.205717320325575e-05</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2797.062064155552</v>
+        <v>-2785.62521332711</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01145347949720086</v>
+        <v>0.01180862664267474</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3757.562291020631</v>
+        <v>-3776.269829178485</v>
       </c>
       <c r="C18" t="n">
-        <v>3.562748044857019e-08</v>
+        <v>2.892158089552116e-08</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6739.520061722007</v>
+        <v>6720.207717792266</v>
       </c>
       <c r="C2" t="n">
-        <v>8.152793319480247e-06</v>
+        <v>8.727382696655102e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>721.5571546109293</v>
+        <v>711.7448635826265</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5777348293016347</v>
+        <v>0.5829525227975091</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2065.53705899171</v>
+        <v>2063.637513394406</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05844062796358515</v>
+        <v>0.05867252820741828</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3053.897459773011</v>
+        <v>3051.901473493883</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004960617949508002</v>
+        <v>0.004988973098467433</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-358.1195702074878</v>
+        <v>-358.6212085080553</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1887386574802699</v>
+        <v>0.1881060214345158</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-159.2230136932005</v>
+        <v>-159.3007274935604</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5226553460420545</v>
+        <v>0.5223421586246051</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>178.7867413409191</v>
+        <v>179.4724826391755</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0214200272110244</v>
+        <v>0.02091747553128063</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1507.930853530883</v>
+        <v>-1508.077705392184</v>
       </c>
       <c r="C9" t="n">
-        <v>1.29682703671483e-15</v>
+        <v>1.285788636058254e-15</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.73527654003422</v>
+        <v>-37.72698178513288</v>
       </c>
       <c r="C10" t="n">
-        <v>6.273158491476749e-06</v>
+        <v>6.300828684449525e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>367.8602254483382</v>
+        <v>368.7085144251944</v>
       </c>
       <c r="C11" t="n">
-        <v>1.094538862688983e-12</v>
+        <v>9.906585669661601e-13</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>236.6583258470568</v>
+        <v>237.6832455472751</v>
       </c>
       <c r="C12" t="n">
-        <v>6.895093132912143e-11</v>
+        <v>6.92110524813832e-11</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06241849384467137</v>
+        <v>0.06693982197715813</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3163880077478819</v>
+        <v>0.2863902646036272</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001661779466927981</v>
+        <v>-0.0001695153069748654</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003904785510839366</v>
+        <v>0.003365316115578594</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.521735284245842</v>
+        <v>-5.519393010106667</v>
       </c>
       <c r="C15" t="n">
-        <v>0.421954610087784</v>
+        <v>0.4211175913683848</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.48314083727431</v>
+        <v>17.47300918955095</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001309707157036379</v>
+        <v>0.00131523567499676</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3116.219031383685</v>
+        <v>-3059.03203678194</v>
       </c>
       <c r="C17" t="n">
-        <v>0.004648918601730384</v>
+        <v>0.005461613900587795</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3326.043844671928</v>
+        <v>-3345.162324941266</v>
       </c>
       <c r="C18" t="n">
-        <v>1.024821233859195e-06</v>
+        <v>8.686838835784208e-07</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6559.796635692211</v>
+        <v>6568.488124131678</v>
       </c>
       <c r="C2" t="n">
-        <v>1.731381305080628e-05</v>
+        <v>1.695615664737295e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>785.0924279688405</v>
+        <v>771.7582467716059</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5450392673549425</v>
+        <v>0.5518885471852863</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1123.780714611285</v>
+        <v>1118.227103985021</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3051272503233036</v>
+        <v>0.3074832521784134</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2087.111598440859</v>
+        <v>2081.088467189411</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05586380586015058</v>
+        <v>0.05655297351893041</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-65.52833137583337</v>
+        <v>-68.23326827329115</v>
       </c>
       <c r="C6" t="n">
-        <v>0.810364435373518</v>
+        <v>0.8026867076867814</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-70.79614295211658</v>
+        <v>-73.39776113584523</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7765976003344549</v>
+        <v>0.7685765483400744</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.854273227008</v>
+        <v>178.6998978159732</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02371682624683942</v>
+        <v>0.02302805008149936</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1458.161195841899</v>
+        <v>-1458.161681372393</v>
       </c>
       <c r="C9" t="n">
-        <v>1.677626571788219e-14</v>
+        <v>1.667610136340861e-14</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-47.36815726392355</v>
+        <v>-47.3302611645739</v>
       </c>
       <c r="C10" t="n">
-        <v>1.878466651723464e-08</v>
+        <v>1.921000421054012e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>436.3179806572188</v>
+        <v>437.4856512901176</v>
       </c>
       <c r="C11" t="n">
-        <v>7.11122756349957e-17</v>
+        <v>6.04529891543633e-17</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>238.5639735914213</v>
+        <v>239.7335425980634</v>
       </c>
       <c r="C12" t="n">
-        <v>4.947247139880983e-11</v>
+        <v>4.784472103433166e-11</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0359657818406048</v>
+        <v>0.04525273967101122</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5683878440798551</v>
+        <v>0.4767674752051899</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001427193046737796</v>
+        <v>-0.0001504246331535135</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01423714539596687</v>
+        <v>0.01010892094706362</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6297313211344182</v>
+        <v>0.5808326688920751</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9275489539946449</v>
+        <v>0.933000287679151</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.69233534972366</v>
+        <v>24.59457090763321</v>
       </c>
       <c r="C16" t="n">
-        <v>1.449928143700839e-05</v>
+        <v>1.559761932523807e-05</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2899.832810822007</v>
+        <v>-2811.199146847541</v>
       </c>
       <c r="C17" t="n">
-        <v>0.008926203300417932</v>
+        <v>0.01122703025590452</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3200.14755114092</v>
+        <v>-3272.899106571248</v>
       </c>
       <c r="C18" t="n">
-        <v>2.837018971497251e-06</v>
+        <v>1.61923902031402e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6326.416447817503</v>
+        <v>6342.395062521732</v>
       </c>
       <c r="C2" t="n">
-        <v>3.702293707580808e-05</v>
+        <v>3.559728599558929e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>901.7091781101385</v>
+        <v>895.0162720574399</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4932583368643093</v>
+        <v>0.4965003169104442</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1025.553729732536</v>
+        <v>1023.247756269457</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3561000653989506</v>
+        <v>0.3571623405490538</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1886.000232126638</v>
+        <v>1882.759749367815</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08846939688478933</v>
+        <v>0.08900694513063548</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>209.4800830707287</v>
+        <v>208.4758117031218</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4450043824805253</v>
+        <v>0.4472025493204458</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>282.6788074317637</v>
+        <v>281.1670351664417</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2583601137437564</v>
+        <v>0.2608481637507534</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>217.8443442645721</v>
+        <v>217.9329441553832</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005326907402383683</v>
+        <v>0.005305130283385203</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1542.175916421855</v>
+        <v>-1543.211900236498</v>
       </c>
       <c r="C9" t="n">
-        <v>4.455440126443583e-16</v>
+        <v>4.238482996987426e-16</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-41.52890693233863</v>
+        <v>-41.56363214285251</v>
       </c>
       <c r="C10" t="n">
-        <v>5.591159249367325e-07</v>
+        <v>5.461440139489683e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>410.832051902947</v>
+        <v>410.7792835112064</v>
       </c>
       <c r="C11" t="n">
-        <v>1.684041036617059e-15</v>
+        <v>1.737833621818382e-15</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>215.9904752259066</v>
+        <v>215.5921635050269</v>
       </c>
       <c r="C12" t="n">
-        <v>2.337988184263703e-09</v>
+        <v>2.91931897810498e-09</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0254315210012511</v>
+        <v>0.02572839245499631</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6888540201109155</v>
+        <v>0.6880950719844725</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001421529889137604</v>
+        <v>-0.0001431920872880927</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01659233578802255</v>
+        <v>0.01632810247873578</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.181473981442726</v>
+        <v>-2.076554348053441</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7514458757340028</v>
+        <v>0.7625707148363826</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.21721215230158</v>
+        <v>25.20696705709205</v>
       </c>
       <c r="C16" t="n">
-        <v>3.269530255136711e-06</v>
+        <v>3.285070194329565e-06</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2795.701423865087</v>
+        <v>-2813.211925227513</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01272901075197635</v>
+        <v>0.01216968948981241</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2744.280246554221</v>
+        <v>-2763.309771001051</v>
       </c>
       <c r="C18" t="n">
-        <v>6.810418623313785e-05</v>
+        <v>5.942829043128427e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8271.268243104223</v>
+        <v>8288.199051388485</v>
       </c>
       <c r="C2" t="n">
-        <v>4.92847638729924e-08</v>
+        <v>4.675178992042549e-08</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>987.6364517215854</v>
+        <v>976.3400265946549</v>
       </c>
       <c r="C3" t="n">
-        <v>0.444260827296299</v>
+        <v>0.4494939766936351</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1136.391605487134</v>
+        <v>1131.856018667189</v>
       </c>
       <c r="C4" t="n">
-        <v>0.298958922214169</v>
+        <v>0.300872099623971</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1975.863509018915</v>
+        <v>1971.035503474794</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06996922071798958</v>
+        <v>0.07064822749825389</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.13837829870243</v>
+        <v>11.42672139555886</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9587378885549769</v>
+        <v>0.9666451227728959</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.6394659317387</v>
+        <v>184.6477084567751</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4522427074702255</v>
+        <v>0.4618114751361277</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>134.3785936007096</v>
+        <v>135.0711181163982</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08577814367061232</v>
+        <v>0.08414427145483017</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1564.302097778532</v>
+        <v>-1564.894506035386</v>
       </c>
       <c r="C9" t="n">
-        <v>1.455015493628608e-16</v>
+        <v>1.409885838275861e-16</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-46.19136448100091</v>
+        <v>-46.17741702840294</v>
       </c>
       <c r="C10" t="n">
-        <v>4.484822420917758e-08</v>
+        <v>4.51762336386955e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>393.1044896167524</v>
+        <v>393.8875580883955</v>
       </c>
       <c r="C11" t="n">
-        <v>4.029706676622401e-14</v>
+        <v>3.667555921233976e-14</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>220.8686337787698</v>
+        <v>221.4059619488582</v>
       </c>
       <c r="C12" t="n">
-        <v>1.374402499256352e-09</v>
+        <v>1.477981633099363e-09</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01448735038838554</v>
+        <v>-0.00719527809912509</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8218961800619704</v>
+        <v>0.911896357149686</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.764387907497561e-05</v>
+        <v>-0.0001041387156842644</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1110047150577466</v>
+        <v>0.09114534930986293</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.081246050048296</v>
+        <v>-4.124544720616489</v>
       </c>
       <c r="C15" t="n">
-        <v>0.557452058840776</v>
+        <v>0.5524626671859314</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.36087438362159</v>
+        <v>17.29419022855838</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001421738936579649</v>
+        <v>0.001479452678343951</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4551.188922526196</v>
+        <v>-4484.595245199304</v>
       </c>
       <c r="C17" t="n">
-        <v>4.378253069164569e-05</v>
+        <v>5.706303323610109e-05</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3555.267913068297</v>
+        <v>-3618.706883761513</v>
       </c>
       <c r="C18" t="n">
-        <v>1.724868687084527e-07</v>
+        <v>1.018268415569602e-07</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4403.348716321704</v>
+        <v>4394.110068219981</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004937643296713208</v>
+        <v>0.005042497960748851</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1795.228499437282</v>
+        <v>1784.884445036663</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1736316986016009</v>
+        <v>0.1761126959885264</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1592.142728126847</v>
+        <v>1591.11287808643</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1548582842781751</v>
+        <v>0.1550967294694492</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2594.781674304048</v>
+        <v>2591.93131144671</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01992111094183764</v>
+        <v>0.02004894939747092</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-92.71493173270662</v>
+        <v>-95.70402604212883</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7326599909956028</v>
+        <v>0.7243884262246544</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.98531329188242</v>
+        <v>97.09347730091341</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6904047630761947</v>
+        <v>0.6959684251338527</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>222.7924062976234</v>
+        <v>223.5277252790557</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003870034726499145</v>
+        <v>0.003749106430527171</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1649.485160000513</v>
+        <v>-1650.111945844551</v>
       </c>
       <c r="C9" t="n">
-        <v>2.049100825903379e-18</v>
+        <v>1.974277181373527e-18</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-44.98280512265942</v>
+        <v>-44.94540319056109</v>
       </c>
       <c r="C10" t="n">
-        <v>7.953999300802128e-08</v>
+        <v>8.134396393819758e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>342.253547367943</v>
+        <v>343.1466871247621</v>
       </c>
       <c r="C11" t="n">
-        <v>3.953643508574765e-11</v>
+        <v>3.549213865817345e-11</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>254.5059828977107</v>
+        <v>255.9937964534942</v>
       </c>
       <c r="C12" t="n">
-        <v>2.333859916974085e-12</v>
+        <v>2.168521534923704e-12</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1021868120670466</v>
+        <v>0.1098537737852884</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1043798968166938</v>
+        <v>0.08346880932949033</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001646500366954123</v>
+        <v>-0.0001711317752634325</v>
       </c>
       <c r="C14" t="n">
-        <v>0.005277617788349292</v>
+        <v>0.003908783213246881</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.452980588321076</v>
+        <v>0.4968418229966824</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9483005652902545</v>
+        <v>0.9431658447587459</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>39.39639737512017</v>
+        <v>39.33468335629823</v>
       </c>
       <c r="C16" t="n">
-        <v>6.754024648623328e-11</v>
+        <v>7.142625776500413e-11</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3103.015992660856</v>
+        <v>-3036.716374110754</v>
       </c>
       <c r="C17" t="n">
-        <v>0.005021552272751701</v>
+        <v>0.006049367645655149</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2987.576935329595</v>
+        <v>-3039.251899550693</v>
       </c>
       <c r="C18" t="n">
-        <v>9.756304719471286e-06</v>
+        <v>6.597375095028438e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5795.9898528828</v>
+        <v>5788.483708394856</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001311210661651284</v>
+        <v>0.0001344527494019851</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1804.120529827187</v>
+        <v>1794.312136365583</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1576986062544346</v>
+        <v>0.159970897176822</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2378.085906941533</v>
+        <v>2376.672734077807</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03079988732272424</v>
+        <v>0.03089093771731821</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3320.580221677532</v>
+        <v>3318.146426263272</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002467445473558524</v>
+        <v>0.002484285764723778</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-245.821808347693</v>
+        <v>-248.3559820768988</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3773927505324001</v>
+        <v>0.3724826518426889</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-215.983807432674</v>
+        <v>-217.9449364501525</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3933017556264021</v>
+        <v>0.3888979285008014</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>189.017237378631</v>
+        <v>190.029314449482</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01542043802008812</v>
+        <v>0.01487270989827281</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1693.897873503057</v>
+        <v>-1695.24580819511</v>
       </c>
       <c r="C9" t="n">
-        <v>5.114527352570434e-19</v>
+        <v>4.775243290221795e-19</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-38.26290600208542</v>
+        <v>-38.24946620196701</v>
       </c>
       <c r="C10" t="n">
-        <v>6.199930777852967e-06</v>
+        <v>6.233686453972318e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>394.0457621194626</v>
+        <v>394.921539996377</v>
       </c>
       <c r="C11" t="n">
-        <v>4.624688626388883e-14</v>
+        <v>4.117469812658777e-14</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>249.6563989449592</v>
+        <v>251.2107161965646</v>
       </c>
       <c r="C12" t="n">
-        <v>2.027345624287322e-11</v>
+        <v>1.873596249877912e-11</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.08348275931696768</v>
+        <v>0.09163486363255599</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1857821841010981</v>
+        <v>0.1501164061056991</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001584814771505337</v>
+        <v>-0.0001651175812053636</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007044533053970575</v>
+        <v>0.005221072472508433</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.263802843109753</v>
+        <v>-9.266067638321339</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1793946455712903</v>
+        <v>0.178371361237621</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.44069583090514</v>
+        <v>21.37855334569327</v>
       </c>
       <c r="C16" t="n">
-        <v>7.012079344868741e-05</v>
+        <v>7.331300627577768e-05</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2787.642451523442</v>
+        <v>-2717.312675159713</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01320997912816224</v>
+        <v>0.01574589077677756</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2778.598718324464</v>
+        <v>-2832.203214147881</v>
       </c>
       <c r="C18" t="n">
-        <v>4.812910318302845e-05</v>
+        <v>3.369746571115075e-05</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Toulouse.xlsx
+++ b/outputs/ML_Results/dist_commute/Toulouse.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ52899126" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ53262222" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ53672836" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ54050947" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ54413312" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ54807379" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ55217197" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ55627265" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ56061177" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ23697106" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ24052578" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ24434867" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ24800631" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ25187253" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ25553146" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ25945400" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ26320816" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ26729785" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/Toulouse.xlsx
+++ b/outputs/ML_Results/dist_commute/Toulouse.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ23697106" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ24052578" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ24434867" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ24800631" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ25187253" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ25553146" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ25945400" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ26320816" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ26729785" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ14083618" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ14417417" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ14815495" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ15217178" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ15631912" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ16033352" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ16433706" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ16851556" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ17280233" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5528.440425783396</v>
+        <v>5471.962546605238</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006527366437381383</v>
+        <v>0.0003668721061436884</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1124.665680169997</v>
+        <v>1123.36139976404</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4213128702904058</v>
+        <v>0.421787730002152</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1561.350267073795</v>
+        <v>1561.704946342932</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2001777701715313</v>
+        <v>0.2000287453835139</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2495.203471962636</v>
+        <v>2495.074197824194</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03997179580284731</v>
+        <v>0.03996200706082886</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136.2942653254474</v>
+        <v>-135.7413149646022</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6215953680347435</v>
+        <v>0.6229163605882421</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.31032259024505</v>
+        <v>23.82233992832602</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9263753723099379</v>
+        <v>0.9247422598208216</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>186.1767520293468</v>
+        <v>186.365125922661</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0171436537358896</v>
+        <v>0.01699330476303208</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1498.390265372565</v>
+        <v>-1498.869818850856</v>
       </c>
       <c r="C9" t="n">
-        <v>4.031956440869804e-15</v>
+        <v>3.861950906705472e-15</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-35.97210063925021</v>
+        <v>-35.95977874292016</v>
       </c>
       <c r="C10" t="n">
-        <v>1.820801461875548e-05</v>
+        <v>1.826067850927096e-05</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>433.6249887716831</v>
+        <v>434.2500885486732</v>
       </c>
       <c r="C11" t="n">
-        <v>7.828292243300847e-17</v>
+        <v>4.532171732297412e-17</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>233.728259121291</v>
+        <v>234.6728690249446</v>
       </c>
       <c r="C12" t="n">
-        <v>1.628070966781333e-10</v>
+        <v>3.857561957794891e-11</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04395569171300271</v>
+        <v>0.04170857675959384</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4952993848792825</v>
+        <v>0.4943792636344374</v>
       </c>
     </row>
     <row r="14">
@@ -622,62 +622,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001625310717837175</v>
+        <v>-0.0001627029924686397</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006902492892446562</v>
+        <v>0.006818550140096527</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.7531338401228096</v>
+        <v>24.87294212457706</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9136189780363243</v>
+        <v>4.388092676493493e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.63416148143385</v>
+        <v>-2229.699661324313</v>
       </c>
       <c r="C16" t="n">
-        <v>4.949274908922603e-06</v>
+        <v>0.04647148696077317</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2221.575312939248</v>
+        <v>-2856.425359214527</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04779199824999053</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-2840.159733608198</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.354615792465299e-05</v>
+        <v>1.903876221883569e-05</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5833.382186438625</v>
+        <v>5797.748114727665</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001189008820837029</v>
+        <v>4.850398767383506e-05</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>683.0938620581164</v>
+        <v>681.5794013443806</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5945195556694053</v>
+        <v>0.5952471258372363</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1856.987006245935</v>
+        <v>1856.234017020983</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0882839627681147</v>
+        <v>0.08836516287487167</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2715.359523213888</v>
+        <v>2713.962608091875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01236294017183958</v>
+        <v>0.01238417422186457</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249.9083195012495</v>
+        <v>-249.2459191231754</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3627137865054162</v>
+        <v>0.3636517777765074</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-57.29523194520837</v>
+        <v>-56.82744975842266</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8195844836698112</v>
+        <v>0.8209519254712547</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.8850266701963</v>
+        <v>234.0212599049581</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002945174648900429</v>
+        <v>0.002917005048232074</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1785.347984879873</v>
+        <v>-1785.557945927765</v>
       </c>
       <c r="C9" t="n">
-        <v>6.86909209791719e-21</v>
+        <v>6.662986180744069e-21</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-39.30804099781007</v>
+        <v>-39.29440990265788</v>
       </c>
       <c r="C10" t="n">
-        <v>3.545508052062961e-06</v>
+        <v>3.543870338623109e-06</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>466.4109303763979</v>
+        <v>466.798255770317</v>
       </c>
       <c r="C11" t="n">
-        <v>8.808054057814205e-19</v>
+        <v>5.243653213575644e-19</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>218.9417495203039</v>
+        <v>219.5426308114932</v>
       </c>
       <c r="C12" t="n">
-        <v>2.401536284720001e-09</v>
+        <v>7.418249427268886e-10</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0880356704046259</v>
+        <v>0.08665037440461601</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1702756544273008</v>
+        <v>0.1557727793059911</v>
       </c>
     </row>
     <row r="14">
@@ -879,62 +866,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0002039251602150829</v>
+        <v>-0.0002040657951819809</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0007996780462920215</v>
+        <v>0.0007867951981127106</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.4826005593666678</v>
+        <v>25.35712824684897</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9443603993213863</v>
+        <v>6.709434071264252e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.19822823756381</v>
+        <v>-2846.445036309412</v>
       </c>
       <c r="C16" t="n">
-        <v>6.497625756007282e-06</v>
+        <v>0.01090185950746215</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2841.453566257378</v>
+        <v>-3555.215697530464</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01121496935591279</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3543.89193946202</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.03910551149471e-07</v>
+        <v>1.255929339108923e-07</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5919.254481081285</v>
+        <v>6105.440333666314</v>
       </c>
       <c r="C2" t="n">
-        <v>5.852562205501254e-05</v>
+        <v>1.065387800496593e-05</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.8553765927626</v>
+        <v>974.4888858232511</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4388566537765172</v>
+        <v>0.4351501776660509</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1754.68930634141</v>
+        <v>1756.273243059285</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09299008552431957</v>
+        <v>0.09266420979386604</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2593.904911768191</v>
+        <v>2597.632106071283</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01258898911396818</v>
+        <v>0.01245072025605633</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-265.1779508231285</v>
+        <v>-266.3509326016145</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3348625226267544</v>
+        <v>0.3326555821909606</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>135.0834204690656</v>
+        <v>135.3170200829744</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5906794081507314</v>
+        <v>0.5900037406173501</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207.673936547255</v>
+        <v>207.094537157781</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008033411590379317</v>
+        <v>0.008192809017390222</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1641.730107392266</v>
+        <v>-1639.654677209642</v>
       </c>
       <c r="C9" t="n">
-        <v>5.933656391164839e-18</v>
+        <v>6.275951618927257e-18</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-45.23305895735614</v>
+        <v>-45.25317676911469</v>
       </c>
       <c r="C10" t="n">
-        <v>7.647149846290405e-08</v>
+        <v>7.522352078486894e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>451.3946845305774</v>
+        <v>449.5068286307767</v>
       </c>
       <c r="C11" t="n">
-        <v>4.520285131157149e-18</v>
+        <v>4.308764560855045e-18</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>268.1143431506945</v>
+        <v>264.8831914628363</v>
       </c>
       <c r="C12" t="n">
-        <v>2.832005473872837e-13</v>
+        <v>1.144949400381512e-13</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0921167971897883</v>
+        <v>0.09984629584814457</v>
       </c>
       <c r="C13" t="n">
-        <v>0.145706220854713</v>
+        <v>0.09529436572867435</v>
       </c>
     </row>
     <row r="14">
@@ -1136,62 +1110,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001720556586092827</v>
+        <v>-0.0001715206348171617</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003099516209397802</v>
+        <v>0.003181340803789938</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.587792744318047</v>
+        <v>21.70593227386736</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7079516311536642</v>
+        <v>1.152637885564254e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.53220872624911</v>
+        <v>-2755.880334252156</v>
       </c>
       <c r="C16" t="n">
-        <v>3.205717320325575e-05</v>
+        <v>0.0125036290704318</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2785.62521332711</v>
+        <v>-3718.062854539993</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01180862664267474</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3776.269829178485</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.892158089552116e-08</v>
+        <v>2.008863764639612e-08</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6720.207717792266</v>
+        <v>6316.71040527577</v>
       </c>
       <c r="C2" t="n">
-        <v>8.727382696655102e-06</v>
+        <v>9.364112792569037e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>711.7448635826265</v>
+        <v>700.1808078888771</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5829525227975091</v>
+        <v>0.5890529905055242</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2063.637513394406</v>
+        <v>2058.740102374339</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05867252820741828</v>
+        <v>0.05926113647550537</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3051.901473493883</v>
+        <v>3042.088656403062</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004988973098467433</v>
+        <v>0.005126095486583781</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-358.6212085080553</v>
+        <v>-348.7664852615848</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1881060214345158</v>
+        <v>0.2000595931262399</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-159.3007274935604</v>
+        <v>-152.1261978831264</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5223421586246051</v>
+        <v>0.5409731276583924</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>179.4724826391755</v>
+        <v>180.3233357557076</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02091747553128063</v>
+        <v>0.02030239912236698</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1508.077705392184</v>
+        <v>-1512.044312721389</v>
       </c>
       <c r="C9" t="n">
-        <v>1.285788636058254e-15</v>
+        <v>1.058518387772407e-15</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.72698178513288</v>
+        <v>-37.62772526384715</v>
       </c>
       <c r="C10" t="n">
-        <v>6.300828684449525e-06</v>
+        <v>6.642557182717113e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>368.7085144251944</v>
+        <v>372.6767087929783</v>
       </c>
       <c r="C11" t="n">
-        <v>9.906585669661601e-13</v>
+        <v>4.439392873527058e-13</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>237.6832455472751</v>
+        <v>244.8100454057494</v>
       </c>
       <c r="C12" t="n">
-        <v>6.92110524813832e-11</v>
+        <v>4.361048951252316e-12</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06693982197715813</v>
+        <v>0.05066442688815857</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2863902646036272</v>
+        <v>0.3940052161236443</v>
       </c>
     </row>
     <row r="14">
@@ -1393,62 +1354,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001695153069748654</v>
+        <v>-0.0001708298428508986</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003365316115578594</v>
+        <v>0.003114136533126623</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.519393010106667</v>
+        <v>19.24094261375283</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4211175913683848</v>
+        <v>0.0001101585550942145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.47300918955095</v>
+        <v>-3121.651820695467</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00131523567499676</v>
+        <v>0.004475967302962401</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3059.03203678194</v>
+        <v>-3473.736598660465</v>
       </c>
       <c r="C17" t="n">
-        <v>0.005461613900587795</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3345.162324941266</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8.686838835784208e-07</v>
+        <v>1.478599036694672e-07</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6568.488124131678</v>
+        <v>6611.745177749293</v>
       </c>
       <c r="C2" t="n">
-        <v>1.695615664737295e-05</v>
+        <v>4.239408164391119e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>771.7582467716059</v>
+        <v>774.9268941717031</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5518885471852863</v>
+        <v>0.5500482693870331</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1118.227103985021</v>
+        <v>1118.983403321184</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3074832521784134</v>
+        <v>0.307091066984774</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2081.088467189411</v>
+        <v>2082.307783060154</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05655297351893041</v>
+        <v>0.05636176272342831</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-68.23326827329115</v>
+        <v>-69.28499170257285</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8026867076867814</v>
+        <v>0.7994837758297511</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-73.39776113584523</v>
+        <v>-73.93939526781766</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7685765483400744</v>
+        <v>0.7668196423098557</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>178.6998978159732</v>
+        <v>178.637900768655</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02302805008149936</v>
+        <v>0.02305570603150523</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1458.161681372393</v>
+        <v>-1458.029533731129</v>
       </c>
       <c r="C9" t="n">
-        <v>1.667610136340861e-14</v>
+        <v>1.663109866603277e-14</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-47.3302611645739</v>
+        <v>-47.34356668746688</v>
       </c>
       <c r="C10" t="n">
-        <v>1.921000421054012e-08</v>
+        <v>1.886455918621011e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>437.4856512901176</v>
+        <v>437.0886420309832</v>
       </c>
       <c r="C11" t="n">
-        <v>6.04529891543633e-17</v>
+        <v>4.782604728681392e-17</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>239.7335425980634</v>
+        <v>238.9958440383463</v>
       </c>
       <c r="C12" t="n">
-        <v>4.784472103433166e-11</v>
+        <v>1.411259737183424e-11</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04525273967101122</v>
+        <v>0.04703328352101544</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4767674752051899</v>
+        <v>0.4328376417179725</v>
       </c>
     </row>
     <row r="14">
@@ -1650,62 +1598,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001504246331535135</v>
+        <v>-0.0001503386107646822</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01010892094706362</v>
+        <v>0.01013279216012706</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5808326688920751</v>
+        <v>24.39645168050597</v>
       </c>
       <c r="C15" t="n">
-        <v>0.933000287679151</v>
+        <v>2.500663233179676e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.59457090763321</v>
+        <v>-2803.781498958601</v>
       </c>
       <c r="C16" t="n">
-        <v>1.559761932523807e-05</v>
+        <v>0.01117533077574251</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2811.199146847541</v>
+        <v>-3259.561583973569</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01122703025590452</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3272.899106571248</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.61923902031402e-06</v>
+        <v>9.039457004453593e-07</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6342.395062521732</v>
+        <v>6191.037667748831</v>
       </c>
       <c r="C2" t="n">
-        <v>3.559728599558929e-05</v>
+        <v>1.951317334330205e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>895.0162720574399</v>
+        <v>890.360663942821</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4965003169104442</v>
+        <v>0.4986734665758006</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1023.247756269457</v>
+        <v>1022.595713505696</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3571623405490538</v>
+        <v>0.3574234423309447</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1882.759749367815</v>
+        <v>1880.410410510643</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08900694513063548</v>
+        <v>0.08936875834816264</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>208.4758117031218</v>
+        <v>210.5481787677869</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4472025493204458</v>
+        <v>0.4425148234543618</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>281.1670351664417</v>
+        <v>283.1125007381342</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2608481637507534</v>
+        <v>0.2573621373017007</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>217.9329441553832</v>
+        <v>218.1019827520713</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005305130283385203</v>
+        <v>0.0052644945320444</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1543.211900236498</v>
+        <v>-1544.079907323699</v>
       </c>
       <c r="C9" t="n">
-        <v>4.238482996987426e-16</v>
+        <v>4.026088754692986e-16</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-41.56363214285251</v>
+        <v>-41.51961181849853</v>
       </c>
       <c r="C10" t="n">
-        <v>5.461440139489683e-07</v>
+        <v>5.577744764509328e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>410.7792835112064</v>
+        <v>412.309375998237</v>
       </c>
       <c r="C11" t="n">
-        <v>1.737833621818382e-15</v>
+        <v>9.93279768926345e-16</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>215.5921635050269</v>
+        <v>218.1345532586195</v>
       </c>
       <c r="C12" t="n">
-        <v>2.91931897810498e-09</v>
+        <v>6.641593897463696e-10</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02572839245499631</v>
+        <v>0.01951320135862374</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6880950719844725</v>
+        <v>0.747824575430457</v>
       </c>
     </row>
     <row r="14">
@@ -1907,62 +1842,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001431920872880927</v>
+        <v>-0.0001436905658825051</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01632810247873578</v>
+        <v>0.01590888588520894</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.076554348053441</v>
+        <v>25.87104009475285</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7625707148363826</v>
+        <v>1.751020974657905e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.20696705709205</v>
+        <v>-2837.751752906003</v>
       </c>
       <c r="C16" t="n">
-        <v>3.285070194329565e-06</v>
+        <v>0.01121494936873406</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2813.211925227513</v>
+        <v>-2811.1226393191</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01216968948981241</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-2763.309771001051</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5.942829043128427e-05</v>
+        <v>2.701409716579039e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8288.199051388485</v>
+        <v>7985.42590142203</v>
       </c>
       <c r="C2" t="n">
-        <v>4.675178992042549e-08</v>
+        <v>2.27727129885102e-08</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>976.3400265946549</v>
+        <v>959.0312729439064</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4494939766936351</v>
+        <v>0.4574267610649976</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.856018667189</v>
+        <v>1125.290190611429</v>
       </c>
       <c r="C4" t="n">
-        <v>0.300872099623971</v>
+        <v>0.3036279966742168</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1971.035503474794</v>
+        <v>1959.417959886398</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07064822749825389</v>
+        <v>0.07225819737626764</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.42672139555886</v>
+        <v>17.51343598582348</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9666451227728959</v>
+        <v>0.9488586797829602</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.6477084567751</v>
+        <v>188.7048198935857</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4618114751361277</v>
+        <v>0.4518326984556609</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>135.0711181163982</v>
+        <v>136.4495421969956</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08414427145483017</v>
+        <v>0.08087460416989192</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1564.894506035386</v>
+        <v>-1567.406913096209</v>
       </c>
       <c r="C9" t="n">
-        <v>1.409885838275861e-16</v>
+        <v>1.234988565638708e-16</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-46.17741702840294</v>
+        <v>-46.03479097062142</v>
       </c>
       <c r="C10" t="n">
-        <v>4.51762336386955e-08</v>
+        <v>4.896050034387184e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>393.8875580883955</v>
+        <v>396.9877796875478</v>
       </c>
       <c r="C11" t="n">
-        <v>3.667555921233976e-14</v>
+        <v>1.710329491279049e-14</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>221.4059619488582</v>
+        <v>226.7586424758231</v>
       </c>
       <c r="C12" t="n">
-        <v>1.477981633099363e-09</v>
+        <v>1.66759132651042e-10</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.00719527809912509</v>
+        <v>-0.01921004763681214</v>
       </c>
       <c r="C13" t="n">
-        <v>0.911896357149686</v>
+        <v>0.7559228994552101</v>
       </c>
     </row>
     <row r="14">
@@ -2164,62 +2086,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001041387156842644</v>
+        <v>-0.0001053681888412397</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09114534930986293</v>
+        <v>0.08719144825448684</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.124544720616489</v>
+        <v>18.5932310369734</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5524626671859314</v>
+        <v>0.0001899472924242023</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.29419022855838</v>
+        <v>-4525.786129598396</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001479452678343951</v>
+        <v>4.707452413737691e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4484.595245199304</v>
+        <v>-3710.812646700181</v>
       </c>
       <c r="C17" t="n">
-        <v>5.706303323610109e-05</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3618.706883761513</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.018268415569602e-07</v>
+        <v>2.063010621153516e-08</v>
       </c>
     </row>
   </sheetData>
@@ -2233,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4394.110068219981</v>
+        <v>4433.692496999528</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005042497960748851</v>
+        <v>0.00247665754575102</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1784.884445036663</v>
+        <v>1784.851787687457</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1761126959885264</v>
+        <v>0.1760768262130699</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1591.11287808643</v>
+        <v>1591.367520931065</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1550967294694492</v>
+        <v>0.154986793726707</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2591.93131144671</v>
+        <v>2592.723889335313</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02004894939747092</v>
+        <v>0.01999229611753271</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-95.70402604212883</v>
+        <v>-96.42973248087085</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7243884262246544</v>
+        <v>0.7221703652159495</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.09347730091341</v>
+        <v>96.46249139714872</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6959684251338527</v>
+        <v>0.6976350949008638</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.5277252790557</v>
+        <v>223.405230499752</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003749106430527171</v>
+        <v>0.003755979950100722</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1650.111945844551</v>
+        <v>-1649.987203409821</v>
       </c>
       <c r="C9" t="n">
-        <v>1.974277181373527e-18</v>
+        <v>1.963669863760277e-18</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-44.94540319056109</v>
+        <v>-44.94884020342681</v>
       </c>
       <c r="C10" t="n">
-        <v>8.134396393819758e-08</v>
+        <v>8.087628703016651e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>343.1466871247621</v>
+        <v>342.8055977392478</v>
       </c>
       <c r="C11" t="n">
-        <v>3.549213865817345e-11</v>
+        <v>3.047301606730229e-11</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>255.9937964534942</v>
+        <v>255.3729249705612</v>
       </c>
       <c r="C12" t="n">
-        <v>2.168521534923704e-12</v>
+        <v>5.355551687657706e-13</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1098537737852884</v>
+        <v>0.1113083152538904</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08346880932949033</v>
+        <v>0.06398033172525516</v>
       </c>
     </row>
     <row r="14">
@@ -2421,62 +2330,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001711317752634325</v>
+        <v>-0.0001710375484192629</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003908783213246881</v>
+        <v>0.003915979690208351</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4968418229966824</v>
+        <v>39.14832743897884</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9431658447587459</v>
+        <v>6.12015503732593e-13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>39.33468335629823</v>
+        <v>-3031.227731630838</v>
       </c>
       <c r="C16" t="n">
-        <v>7.142625776500413e-11</v>
+        <v>0.006012959403042389</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3036.716374110754</v>
+        <v>-3029.056869731865</v>
       </c>
       <c r="C17" t="n">
-        <v>0.006049367645655149</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3039.251899550693</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6.597375095028438e-06</v>
+        <v>4.303549441611691e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5788.483708394856</v>
+        <v>5108.3173291612</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001344527494019851</v>
+        <v>0.0003511935794093185</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1794.312136365583</v>
+        <v>1773.198384932653</v>
       </c>
       <c r="C3" t="n">
-        <v>0.159970897176822</v>
+        <v>0.1649458212397374</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2376.672734077807</v>
+        <v>2372.077890211755</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03089093771731821</v>
+        <v>0.03122946989902574</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3318.146426263272</v>
+        <v>3303.971353700372</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002484285764723778</v>
+        <v>0.002593378856258077</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-248.3559820768988</v>
+        <v>-233.1932792078745</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3724826518426889</v>
+        <v>0.4020278245341329</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-217.9449364501525</v>
+        <v>-207.5907754134927</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3888979285008014</v>
+        <v>0.4116469624551672</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>190.029314449482</v>
+        <v>191.070499826139</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01487270989827281</v>
+        <v>0.01433654957822724</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1695.24580819511</v>
+        <v>-1700.975117942707</v>
       </c>
       <c r="C9" t="n">
-        <v>4.775243290221795e-19</v>
+        <v>3.594495752254381e-19</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-38.24946620196701</v>
+        <v>-38.07283997683774</v>
       </c>
       <c r="C10" t="n">
-        <v>6.233686453972318e-06</v>
+        <v>6.870744104282489e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>394.921539996377</v>
+        <v>401.9238721138053</v>
       </c>
       <c r="C11" t="n">
-        <v>4.117469812658777e-14</v>
+        <v>1.090848871339307e-14</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>251.2107161965646</v>
+        <v>263.1732773217465</v>
       </c>
       <c r="C12" t="n">
-        <v>1.873596249877912e-11</v>
+        <v>4.471781450156576e-13</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.09163486363255599</v>
+        <v>0.06379270674711576</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1501164061056991</v>
+        <v>0.2894629149141387</v>
       </c>
     </row>
     <row r="14">
@@ -2678,62 +2574,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001651175812053636</v>
+        <v>-0.0001663860696928128</v>
       </c>
       <c r="C14" t="n">
-        <v>0.005221072472508433</v>
+        <v>0.004883283784987157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.266067638321339</v>
+        <v>24.27951617575592</v>
       </c>
       <c r="C15" t="n">
-        <v>0.178371361237621</v>
+        <v>9.048751752546326e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.37855334569327</v>
+        <v>-2814.053195795805</v>
       </c>
       <c r="C16" t="n">
-        <v>7.331300627577768e-05</v>
+        <v>0.01222513613508094</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2717.312675159713</v>
+        <v>-3039.095698730565</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01574589077677756</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-2832.203214147881</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.369746571115075e-05</v>
+        <v>4.97050820048166e-06</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Toulouse.xlsx
+++ b/outputs/ML_Results/dist_commute/Toulouse.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ14083618" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ14417417" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ14815495" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ15217178" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ15631912" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ16033352" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ16433706" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ16851556" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ17280233" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ44440921" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ44704444" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ44992898" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ45283237" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ45612193" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ45904802" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ46205315" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ46498236" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ46786508" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5471.962546605238</v>
+        <v>5471.962545618293</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003668721061436884</v>
+        <v>0.0003668721097239259</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1123.36139976404</v>
+        <v>1123.361399838373</v>
       </c>
       <c r="C3" t="n">
-        <v>0.421787730002152</v>
+        <v>0.4217877300019739</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1561.704946342932</v>
+        <v>1561.704946498513</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2000287453835139</v>
+        <v>0.200028745400158</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2495.074197824194</v>
+        <v>2495.074197810961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03996200706082886</v>
+        <v>0.03996200705957261</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-135.7413149646022</v>
+        <v>-135.7413149944737</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6229163605882421</v>
+        <v>0.6229163605123911</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.82233992832602</v>
+        <v>23.82233987419124</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9247422598208216</v>
+        <v>0.9247422599917087</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>186.365125922661</v>
+        <v>186.3651259900053</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01699330476303208</v>
+        <v>0.01699330472306355</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1498.869818850856</v>
+        <v>-1498.86981887001</v>
       </c>
       <c r="C9" t="n">
-        <v>3.861950906705472e-15</v>
+        <v>3.861950905109412e-15</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-35.95977874292016</v>
+        <v>-35.95977874461809</v>
       </c>
       <c r="C10" t="n">
-        <v>1.826067850927096e-05</v>
+        <v>1.826067849891364e-05</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>434.2500885486732</v>
+        <v>434.2500885931987</v>
       </c>
       <c r="C11" t="n">
-        <v>4.532171732297412e-17</v>
+        <v>4.532171703137289e-17</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>234.6728690249446</v>
+        <v>234.672868964259</v>
       </c>
       <c r="C12" t="n">
-        <v>3.857561957794891e-11</v>
+        <v>3.857561991920035e-11</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04170857675959384</v>
+        <v>4.170857689791308</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4943792636344374</v>
+        <v>0.4943792621879217</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001627029924686397</v>
+        <v>-162.7029922362669</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006818550140096527</v>
+        <v>0.006818550181558364</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.87294212457706</v>
+        <v>24.87294212457648</v>
       </c>
       <c r="C15" t="n">
-        <v>4.388092676493493e-07</v>
+        <v>4.388092676495407e-07</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2229.699661324313</v>
+        <v>-22.29699661324339</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04647148696077317</v>
+        <v>0.04647148696076997</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2856.425359214527</v>
+        <v>-28.56425359214549</v>
       </c>
       <c r="C17" t="n">
-        <v>1.903876221883569e-05</v>
+        <v>1.903876221883256e-05</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5797.748114727665</v>
+        <v>5797.748115211615</v>
       </c>
       <c r="C2" t="n">
-        <v>4.850398767383506e-05</v>
+        <v>4.850398727724773e-05</v>
       </c>
     </row>
     <row r="3">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>681.5794013443806</v>
+        <v>681.5794013540792</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5952471258372363</v>
+        <v>0.595247125837556</v>
       </c>
     </row>
     <row r="4">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1856.234017020983</v>
+        <v>1856.234016849558</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08836516287487167</v>
+        <v>0.08836516282575589</v>
       </c>
     </row>
     <row r="5">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2713.962608091875</v>
+        <v>2713.96260793199</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01238417422186457</v>
+        <v>0.01238417420678513</v>
       </c>
     </row>
     <row r="6">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249.2459191231754</v>
+        <v>-249.2459191383401</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3636517777765074</v>
+        <v>0.363651777747885</v>
       </c>
     </row>
     <row r="7">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-56.82744975842266</v>
+        <v>-56.82744971654566</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8209519254712547</v>
+        <v>0.8209519256006288</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.0212599049581</v>
+        <v>234.021259930581</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002917005048232074</v>
+        <v>0.002917005044254196</v>
       </c>
     </row>
     <row r="9">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1785.557945927765</v>
+        <v>-1785.557945892241</v>
       </c>
       <c r="C9" t="n">
-        <v>6.662986180744069e-21</v>
+        <v>6.662986179685953e-21</v>
       </c>
     </row>
     <row r="10">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-39.29440990265788</v>
+        <v>-39.29440990110291</v>
       </c>
       <c r="C10" t="n">
-        <v>3.543870338623109e-06</v>
+        <v>3.543870339183506e-06</v>
       </c>
     </row>
     <row r="11">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>466.798255770317</v>
+        <v>466.7982557475013</v>
       </c>
       <c r="C11" t="n">
-        <v>5.243653213575644e-19</v>
+        <v>5.243653240568377e-19</v>
       </c>
     </row>
     <row r="12">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>219.5426308114932</v>
+        <v>219.5426307915721</v>
       </c>
       <c r="C12" t="n">
-        <v>7.418249427268886e-10</v>
+        <v>7.41824943780052e-10</v>
       </c>
     </row>
     <row r="13">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.08665037440461601</v>
+        <v>8.665037424166481</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1557727793059911</v>
+        <v>0.1557727801221217</v>
       </c>
     </row>
     <row r="14">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0002040657951819809</v>
+        <v>-204.0657951065398</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0007867951981127106</v>
+        <v>0.0007867952099030153</v>
       </c>
     </row>
     <row r="15">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.35712824684897</v>
+        <v>25.35712824684862</v>
       </c>
       <c r="C15" t="n">
-        <v>6.709434071264252e-07</v>
+        <v>6.70943407126805e-07</v>
       </c>
     </row>
     <row r="16">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2846.445036309412</v>
+        <v>-28.46445036309525</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01090185950746215</v>
+        <v>0.01090185950745898</v>
       </c>
     </row>
     <row r="17">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3555.215697530464</v>
+        <v>-35.55215697530512</v>
       </c>
       <c r="C17" t="n">
-        <v>1.255929339108923e-07</v>
+        <v>1.255929339108573e-07</v>
       </c>
     </row>
   </sheetData>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6105.440333666314</v>
+        <v>6105.440334883986</v>
       </c>
       <c r="C2" t="n">
-        <v>1.065387800496593e-05</v>
+        <v>1.065387781682619e-05</v>
       </c>
     </row>
     <row r="3">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>974.4888858232511</v>
+        <v>974.4888856745632</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4351501776660509</v>
+        <v>0.4351501776648202</v>
       </c>
     </row>
     <row r="4">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1756.273243059285</v>
+        <v>1756.273243026653</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09266420979386604</v>
+        <v>0.09266420978922944</v>
       </c>
     </row>
     <row r="5">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2597.632106071283</v>
+        <v>2597.632106036806</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01245072025605633</v>
+        <v>0.01245072025415844</v>
       </c>
     </row>
     <row r="6">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266.3509326016145</v>
+        <v>-266.3509326311959</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3326555821909606</v>
+        <v>0.3326555821371813</v>
       </c>
     </row>
     <row r="7">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>135.3170200829744</v>
+        <v>135.3170200516576</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5900037406173501</v>
+        <v>0.5900037407037787</v>
       </c>
     </row>
     <row r="8">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207.094537157781</v>
+        <v>207.094537186865</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008192809017390222</v>
+        <v>0.008192809007522579</v>
       </c>
     </row>
     <row r="9">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1639.654677209642</v>
+        <v>-1639.654677223728</v>
       </c>
       <c r="C9" t="n">
-        <v>6.275951618927257e-18</v>
+        <v>6.275951618063873e-18</v>
       </c>
     </row>
     <row r="10">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-45.25317676911469</v>
+        <v>-45.25317676999485</v>
       </c>
       <c r="C10" t="n">
-        <v>7.522352078486894e-08</v>
+        <v>7.522352076380367e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>449.5068286307767</v>
+        <v>449.5068286039443</v>
       </c>
       <c r="C11" t="n">
-        <v>4.308764560855045e-18</v>
+        <v>4.308764583312647e-18</v>
       </c>
     </row>
     <row r="12">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>264.8831914628363</v>
+        <v>264.8831914199022</v>
       </c>
       <c r="C12" t="n">
-        <v>1.144949400381512e-13</v>
+        <v>1.14494940673636e-13</v>
       </c>
     </row>
     <row r="13">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.09984629584814457</v>
+        <v>9.98462959251902</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09529436572867435</v>
+        <v>0.09529436546171968</v>
       </c>
     </row>
     <row r="14">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001715206348171617</v>
+        <v>-171.5206349578673</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003181340803789938</v>
+        <v>0.003181340783261511</v>
       </c>
     </row>
     <row r="15">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.70593227386736</v>
+        <v>21.70593227386628</v>
       </c>
       <c r="C15" t="n">
-        <v>1.152637885564254e-05</v>
+        <v>1.152637885565485e-05</v>
       </c>
     </row>
     <row r="16">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2755.880334252156</v>
+        <v>-27.55880334252252</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0125036290704318</v>
+        <v>0.01250362907042868</v>
       </c>
     </row>
     <row r="17">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3718.062854539993</v>
+        <v>-37.18062854540072</v>
       </c>
       <c r="C17" t="n">
-        <v>2.008863764639612e-08</v>
+        <v>2.008863764638146e-08</v>
       </c>
     </row>
   </sheetData>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6316.71040527577</v>
+        <v>6316.710404535789</v>
       </c>
       <c r="C2" t="n">
-        <v>9.364112792569037e-06</v>
+        <v>9.364112928197626e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>700.1808078888771</v>
+        <v>700.1808079521304</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5890529905055242</v>
+        <v>0.5890529905027946</v>
       </c>
     </row>
     <row r="4">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2058.740102374339</v>
+        <v>2058.740102436303</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05926113647550537</v>
+        <v>0.05926113648993552</v>
       </c>
     </row>
     <row r="5">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3042.088656403062</v>
+        <v>3042.088656391832</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005126095486583781</v>
+        <v>0.005126095486043264</v>
       </c>
     </row>
     <row r="6">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-348.7664852615848</v>
+        <v>-348.7664852533522</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2000595931262399</v>
+        <v>0.2000595931366421</v>
       </c>
     </row>
     <row r="7">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-152.1261978831264</v>
+        <v>-152.1261978779174</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5409731276583924</v>
+        <v>0.5409731276720534</v>
       </c>
     </row>
     <row r="8">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>180.3233357557076</v>
+        <v>180.3233357892817</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02030239912236698</v>
+        <v>0.0203023990974963</v>
       </c>
     </row>
     <row r="9">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1512.044312721389</v>
+        <v>-1512.044312710141</v>
       </c>
       <c r="C9" t="n">
-        <v>1.058518387772407e-15</v>
+        <v>1.058518387816895e-15</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.62772526384715</v>
+        <v>-37.62772526492942</v>
       </c>
       <c r="C10" t="n">
-        <v>6.642557182717113e-06</v>
+        <v>6.6425571811619e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>372.6767087929783</v>
+        <v>372.6767088599129</v>
       </c>
       <c r="C11" t="n">
-        <v>4.439392873527058e-13</v>
+        <v>4.439392817163494e-13</v>
       </c>
     </row>
     <row r="12">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>244.8100454057494</v>
+        <v>244.8100453915826</v>
       </c>
       <c r="C12" t="n">
-        <v>4.361048951252316e-12</v>
+        <v>4.361048957960744e-12</v>
       </c>
     </row>
     <row r="13">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05066442688815857</v>
+        <v>5.06644268503513</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3940052161236443</v>
+        <v>0.3940052164904766</v>
       </c>
     </row>
     <row r="14">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001708298428508986</v>
+        <v>-170.829842968536</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003114136533126623</v>
+        <v>0.003114136526979865</v>
       </c>
     </row>
     <row r="15">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.24094261375283</v>
+        <v>19.24094261375295</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001101585550942145</v>
+        <v>0.0001101585550941975</v>
       </c>
     </row>
     <row r="16">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3121.651820695467</v>
+        <v>-31.21651820695574</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004475967302962401</v>
+        <v>0.004475967302961142</v>
       </c>
     </row>
     <row r="17">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3473.736598660465</v>
+        <v>-34.73736598660501</v>
       </c>
       <c r="C17" t="n">
-        <v>1.478599036694672e-07</v>
+        <v>1.478599036694177e-07</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6611.745177749293</v>
+        <v>6611.745176219212</v>
       </c>
       <c r="C2" t="n">
-        <v>4.239408164391119e-06</v>
+        <v>4.239408287924701e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>774.9268941717031</v>
+        <v>774.9268941554399</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5500482693870331</v>
+        <v>0.5500482693871752</v>
       </c>
     </row>
     <row r="4">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1118.983403321184</v>
+        <v>1118.983403400363</v>
       </c>
       <c r="C4" t="n">
-        <v>0.307091066984774</v>
+        <v>0.3070910669990655</v>
       </c>
     </row>
     <row r="5">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2082.307783060154</v>
+        <v>2082.307783069001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05636176272342831</v>
+        <v>0.05636176272514674</v>
       </c>
     </row>
     <row r="6">
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69.28499170257285</v>
+        <v>-69.28499168137263</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7994837758297511</v>
+        <v>0.7994837758894597</v>
       </c>
     </row>
     <row r="7">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-73.93939526781766</v>
+        <v>-73.93939525933256</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7668196423098557</v>
+        <v>0.7668196423355387</v>
       </c>
     </row>
     <row r="8">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>178.637900768655</v>
+        <v>178.6379007579597</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02305570603150523</v>
+        <v>0.02305570604037963</v>
       </c>
     </row>
     <row r="9">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1458.029533731129</v>
+        <v>-1458.029533736846</v>
       </c>
       <c r="C9" t="n">
-        <v>1.663109866603277e-14</v>
+        <v>1.663109866597836e-14</v>
       </c>
     </row>
     <row r="10">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-47.34356668746688</v>
+        <v>-47.34356668365525</v>
       </c>
       <c r="C10" t="n">
-        <v>1.886455918621011e-08</v>
+        <v>1.886455920298904e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>437.0886420309832</v>
+        <v>437.0886420189939</v>
       </c>
       <c r="C11" t="n">
-        <v>4.782604728681392e-17</v>
+        <v>4.782604738901803e-17</v>
       </c>
     </row>
     <row r="12">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>238.9958440383463</v>
+        <v>238.9958440692036</v>
       </c>
       <c r="C12" t="n">
-        <v>1.411259737183424e-11</v>
+        <v>1.4112597309927e-11</v>
       </c>
     </row>
     <row r="13">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04703328352101544</v>
+        <v>4.703328350958778</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4328376417179725</v>
+        <v>0.4328376418325801</v>
       </c>
     </row>
     <row r="14">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001503386107646822</v>
+        <v>-150.3386104479715</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01013279216012706</v>
+        <v>0.010132792347597</v>
       </c>
     </row>
     <row r="15">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.39645168050597</v>
+        <v>24.39645168050549</v>
       </c>
       <c r="C15" t="n">
-        <v>2.500663233179676e-06</v>
+        <v>2.500663233180685e-06</v>
       </c>
     </row>
     <row r="16">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2803.781498958601</v>
+        <v>-28.0378149895846</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01117533077574251</v>
+        <v>0.01117533077574673</v>
       </c>
     </row>
     <row r="17">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3259.561583973569</v>
+        <v>-32.59561583973505</v>
       </c>
       <c r="C17" t="n">
-        <v>9.039457004453593e-07</v>
+        <v>9.039457004457378e-07</v>
       </c>
     </row>
   </sheetData>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6191.037667748831</v>
+        <v>6191.037667945665</v>
       </c>
       <c r="C2" t="n">
-        <v>1.951317334330205e-05</v>
+        <v>1.951317328537763e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>890.360663942821</v>
+        <v>890.3606641001086</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4986734665758006</v>
+        <v>0.4986734665754338</v>
       </c>
     </row>
     <row r="4">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1022.595713505696</v>
+        <v>1022.595713621895</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3574234423309447</v>
+        <v>0.3574234423379541</v>
       </c>
     </row>
     <row r="5">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1880.410410510643</v>
+        <v>1880.410410606335</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08936875834816264</v>
+        <v>0.08936875836589007</v>
       </c>
     </row>
     <row r="6">
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>210.5481787677869</v>
+        <v>210.5481787700027</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4425148234543618</v>
+        <v>0.4425148234495201</v>
       </c>
     </row>
     <row r="7">
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>283.1125007381342</v>
+        <v>283.1125007722395</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2573621373017007</v>
+        <v>0.2573621372443654</v>
       </c>
     </row>
     <row r="8">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>218.1019827520713</v>
+        <v>218.1019827587231</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0052644945320444</v>
+        <v>0.00526449453051376</v>
       </c>
     </row>
     <row r="9">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1544.079907323699</v>
+        <v>-1544.079907328284</v>
       </c>
       <c r="C9" t="n">
-        <v>4.026088754692986e-16</v>
+        <v>4.026088754536705e-16</v>
       </c>
     </row>
     <row r="10">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-41.51961181849853</v>
+        <v>-41.51961181621589</v>
       </c>
       <c r="C10" t="n">
-        <v>5.577744764509328e-07</v>
+        <v>5.577744768445125e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>412.309375998237</v>
+        <v>412.3093759227019</v>
       </c>
       <c r="C11" t="n">
-        <v>9.93279768926345e-16</v>
+        <v>9.932797831011105e-16</v>
       </c>
     </row>
     <row r="12">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>218.1345532586195</v>
+        <v>218.1345532699357</v>
       </c>
       <c r="C12" t="n">
-        <v>6.641593897463696e-10</v>
+        <v>6.641593889404862e-10</v>
       </c>
     </row>
     <row r="13">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01951320135862374</v>
+        <v>1.951320134999148</v>
       </c>
       <c r="C13" t="n">
-        <v>0.747824575430457</v>
+        <v>0.7478245755392201</v>
       </c>
     </row>
     <row r="14">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001436905658825051</v>
+        <v>-143.6905654697013</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01590888588520894</v>
+        <v>0.01590888617309134</v>
       </c>
     </row>
     <row r="15">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.87104009475285</v>
+        <v>25.87104009475241</v>
       </c>
       <c r="C15" t="n">
-        <v>1.751020974657905e-07</v>
+        <v>1.751020974658612e-07</v>
       </c>
     </row>
     <row r="16">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2837.751752906003</v>
+        <v>-28.37751752906031</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01121494936873406</v>
+        <v>0.01121494936873317</v>
       </c>
     </row>
     <row r="17">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2811.1226393191</v>
+        <v>-28.11122639319111</v>
       </c>
       <c r="C17" t="n">
-        <v>2.701409716579039e-05</v>
+        <v>2.701409716578586e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7985.42590142203</v>
+        <v>7985.425901616587</v>
       </c>
       <c r="C2" t="n">
-        <v>2.27727129885102e-08</v>
+        <v>2.277271288779498e-08</v>
       </c>
     </row>
     <row r="3">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>959.0312729439064</v>
+        <v>959.0312728282892</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4574267610649976</v>
+        <v>0.4574267610653592</v>
       </c>
     </row>
     <row r="4">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1125.290190611429</v>
+        <v>1125.290190575577</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3036279966742168</v>
+        <v>0.3036279966718619</v>
       </c>
     </row>
     <row r="5">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.417959886398</v>
+        <v>1959.417959745617</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07225819737626764</v>
+        <v>0.07225819735537543</v>
       </c>
     </row>
     <row r="6">
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.51343598582348</v>
+        <v>17.5134359733091</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9488586797829602</v>
+        <v>0.9488586798194744</v>
       </c>
     </row>
     <row r="7">
@@ -1995,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.7048198935857</v>
+        <v>188.7048199101095</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4518326984556609</v>
+        <v>0.4518326984155558</v>
       </c>
     </row>
     <row r="8">
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>136.4495421969956</v>
+        <v>136.449542204867</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08087460416989192</v>
+        <v>0.08087460415150609</v>
       </c>
     </row>
     <row r="9">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1567.406913096209</v>
+        <v>-1567.406913104897</v>
       </c>
       <c r="C9" t="n">
-        <v>1.234988565638708e-16</v>
+        <v>1.234988565502988e-16</v>
       </c>
     </row>
     <row r="10">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-46.03479097062142</v>
+        <v>-46.03479096558959</v>
       </c>
       <c r="C10" t="n">
-        <v>4.896050034387184e-08</v>
+        <v>4.896050041043233e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.9877796875478</v>
+        <v>396.987779665294</v>
       </c>
       <c r="C11" t="n">
-        <v>1.710329491279049e-14</v>
+        <v>1.710329498246377e-14</v>
       </c>
     </row>
     <row r="12">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>226.7586424758231</v>
+        <v>226.7586424562801</v>
       </c>
       <c r="C12" t="n">
-        <v>1.66759132651042e-10</v>
+        <v>1.667591329833765e-10</v>
       </c>
     </row>
     <row r="13">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01921004763681214</v>
+        <v>-1.921004768842045</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7559228994552101</v>
+        <v>0.7559228988265335</v>
       </c>
     </row>
     <row r="14">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001053681888412397</v>
+        <v>-105.3681891318341</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08719144825448684</v>
+        <v>0.08719144731741262</v>
       </c>
     </row>
     <row r="15">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18.5932310369734</v>
+        <v>18.59323103697187</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001899472924242023</v>
+        <v>0.0001899472924244322</v>
       </c>
     </row>
     <row r="16">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4525.786129598396</v>
+        <v>-45.25786129598395</v>
       </c>
       <c r="C16" t="n">
-        <v>4.707452413737691e-05</v>
+        <v>4.70745241373777e-05</v>
       </c>
     </row>
     <row r="17">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3710.812646700181</v>
+        <v>-37.10812646700248</v>
       </c>
       <c r="C17" t="n">
-        <v>2.063010621153516e-08</v>
+        <v>2.063010621152319e-08</v>
       </c>
     </row>
   </sheetData>
@@ -2174,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4433.692496999528</v>
+        <v>4433.692494299632</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00247665754575102</v>
+        <v>0.002476657582191465</v>
       </c>
     </row>
     <row r="3">
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1784.851787687457</v>
+        <v>1784.851787468472</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1760768262130699</v>
+        <v>0.1760768262132544</v>
       </c>
     </row>
     <row r="4">
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1591.367520931065</v>
+        <v>1591.367520902595</v>
       </c>
       <c r="C4" t="n">
-        <v>0.154986793726707</v>
+        <v>0.1549867937276062</v>
       </c>
     </row>
     <row r="5">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2592.723889335313</v>
+        <v>2592.723889313726</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01999229611753271</v>
+        <v>0.01999229611707898</v>
       </c>
     </row>
     <row r="6">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-96.42973248087085</v>
+        <v>-96.42973241569976</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7221703652159495</v>
+        <v>0.7221703653964252</v>
       </c>
     </row>
     <row r="7">
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96.46249139714872</v>
+        <v>96.46249142165681</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6976350949008638</v>
+        <v>0.6976350948281571</v>
       </c>
     </row>
     <row r="8">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.405230499752</v>
+        <v>223.4052305493084</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003755979950100722</v>
+        <v>0.003755979941896844</v>
       </c>
     </row>
     <row r="9">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1649.987203409821</v>
+        <v>-1649.98720344061</v>
       </c>
       <c r="C9" t="n">
-        <v>1.963669863760277e-18</v>
+        <v>1.963669861967251e-18</v>
       </c>
     </row>
     <row r="10">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-44.94884020342681</v>
+        <v>-44.94884020591766</v>
       </c>
       <c r="C10" t="n">
-        <v>8.087628703016651e-08</v>
+        <v>8.087628693499631e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>342.8055977392478</v>
+        <v>342.8055977003819</v>
       </c>
       <c r="C11" t="n">
-        <v>3.047301606730229e-11</v>
+        <v>3.047301624067701e-11</v>
       </c>
     </row>
     <row r="12">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>255.3729249705612</v>
+        <v>255.3729249987593</v>
       </c>
       <c r="C12" t="n">
-        <v>5.355551687657706e-13</v>
+        <v>5.355551662805788e-13</v>
       </c>
     </row>
     <row r="13">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1113083152538904</v>
+        <v>11.13083154039381</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06398033172525516</v>
+        <v>0.06398033136381445</v>
       </c>
     </row>
     <row r="14">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001710375484192629</v>
+        <v>-171.0375487563675</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003915979690208351</v>
+        <v>0.003915979619841271</v>
       </c>
     </row>
     <row r="15">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>39.14832743897884</v>
+        <v>39.148327438978</v>
       </c>
       <c r="C15" t="n">
-        <v>6.12015503732593e-13</v>
+        <v>6.120155037330735e-13</v>
       </c>
     </row>
     <row r="16">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3031.227731630838</v>
+        <v>-30.31227731630885</v>
       </c>
       <c r="C16" t="n">
-        <v>0.006012959403042389</v>
+        <v>0.006012959403041689</v>
       </c>
     </row>
     <row r="17">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3029.056869731865</v>
+        <v>-30.29056869731897</v>
       </c>
       <c r="C17" t="n">
-        <v>4.303549441611691e-06</v>
+        <v>4.303549441610654e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5108.3173291612</v>
+        <v>5108.317329592359</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003511935794093185</v>
+        <v>0.0003511935783507338</v>
       </c>
     </row>
     <row r="3">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1773.198384932653</v>
+        <v>1773.198384953821</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1649458212397374</v>
+        <v>0.1649458212398627</v>
       </c>
     </row>
     <row r="4">
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2372.077890211755</v>
+        <v>2372.077890055907</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03122946989902574</v>
+        <v>0.03122946989554565</v>
       </c>
     </row>
     <row r="5">
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3303.971353700372</v>
+        <v>3303.971353587671</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002593378856258077</v>
+        <v>0.002593378855519546</v>
       </c>
     </row>
     <row r="6">
@@ -2470,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-233.1932792078745</v>
+        <v>-233.1932792050769</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4020278245341329</v>
+        <v>0.4020278245397422</v>
       </c>
     </row>
     <row r="7">
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-207.5907754134927</v>
+        <v>-207.5907753727152</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4116469624551672</v>
+        <v>0.4116469625463629</v>
       </c>
     </row>
     <row r="8">
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>191.070499826139</v>
+        <v>191.0704998834699</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01433654957822724</v>
+        <v>0.01433654954755649</v>
       </c>
     </row>
     <row r="9">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1700.975117942707</v>
+        <v>-1700.975117954371</v>
       </c>
       <c r="C9" t="n">
-        <v>3.594495752254381e-19</v>
+        <v>3.594495751073469e-19</v>
       </c>
     </row>
     <row r="10">
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-38.07283997683774</v>
+        <v>-38.07283996794772</v>
       </c>
       <c r="C10" t="n">
-        <v>6.870744104282489e-06</v>
+        <v>6.870744129173164e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>401.9238721138053</v>
+        <v>401.9238720353162</v>
       </c>
       <c r="C11" t="n">
-        <v>1.090848871339307e-14</v>
+        <v>1.090848885553882e-14</v>
       </c>
     </row>
     <row r="12">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>263.1732773217465</v>
+        <v>263.1732772717649</v>
       </c>
       <c r="C12" t="n">
-        <v>4.471781450156576e-13</v>
+        <v>4.4717814842187e-13</v>
       </c>
     </row>
     <row r="13">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06379270674711576</v>
+        <v>6.37927067182267</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2894629149141387</v>
+        <v>0.2894629151345145</v>
       </c>
     </row>
     <row r="14">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001663860696928128</v>
+        <v>-166.3860698598299</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004883283784987157</v>
+        <v>0.004883283732301224</v>
       </c>
     </row>
     <row r="15">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.27951617575592</v>
+        <v>24.2795161757549</v>
       </c>
       <c r="C15" t="n">
-        <v>9.048751752546326e-07</v>
+        <v>9.048751752554708e-07</v>
       </c>
     </row>
     <row r="16">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2814.053195795805</v>
+        <v>-28.14053195795836</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01222513613508094</v>
+        <v>0.0122251361350801</v>
       </c>
     </row>
     <row r="17">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3039.095698730565</v>
+        <v>-30.39095698730524</v>
       </c>
       <c r="C17" t="n">
-        <v>4.97050820048166e-06</v>
+        <v>4.970508200483338e-06</v>
       </c>
     </row>
   </sheetData>
